--- a/WEBシステム予定表.xlsx
+++ b/WEBシステム予定表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\git04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/Webシステム/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F447192-A6B9-4BF4-A415-6C3434FC0BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2F447192-A6B9-4BF4-A415-6C3434FC0BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C288AC57-49CE-4537-9EC1-2EDB565F6F9E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="90">
   <si>
     <t>人材管理（全体予定）</t>
     <rPh sb="0" eb="2">
@@ -718,6 +718,10 @@
     <t>アプリケーション</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -728,7 +732,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -817,13 +821,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="MS P ゴシック"/>
@@ -2105,174 +2102,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2306,25 +2135,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2363,14 +2177,211 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="13"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightGray">
@@ -2436,88 +2447,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="12"/>
           <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="10"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="10"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="12"/>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGray">
-          <fgColor indexed="11"/>
-          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3720,12 +3649,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" ht="13.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3850,10 +3779,10 @@
       <c r="DV1" s="5"/>
     </row>
     <row r="2" spans="1:127" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3978,282 +3907,282 @@
       <c r="DV2" s="5"/>
     </row>
     <row r="3" spans="1:127" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="78">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="89">
         <v>44044</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="79"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="79"/>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="79"/>
-      <c r="CB3" s="79"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="79"/>
-      <c r="CE3" s="79"/>
-      <c r="CF3" s="79"/>
-      <c r="CG3" s="79"/>
-      <c r="CH3" s="79"/>
-      <c r="CI3" s="79"/>
-      <c r="CJ3" s="79"/>
-      <c r="CK3" s="79"/>
-      <c r="CL3" s="79"/>
-      <c r="CM3" s="79"/>
-      <c r="CN3" s="79"/>
-      <c r="CO3" s="79"/>
-      <c r="CP3" s="79"/>
-      <c r="CQ3" s="79"/>
-      <c r="CR3" s="79"/>
-      <c r="CS3" s="79"/>
-      <c r="CT3" s="79"/>
-      <c r="CU3" s="79"/>
-      <c r="CV3" s="79"/>
-      <c r="CW3" s="79"/>
-      <c r="CX3" s="79"/>
-      <c r="CY3" s="79"/>
-      <c r="CZ3" s="79"/>
-      <c r="DA3" s="79"/>
-      <c r="DB3" s="79"/>
-      <c r="DC3" s="79"/>
-      <c r="DD3" s="79"/>
-      <c r="DE3" s="79"/>
-      <c r="DF3" s="79"/>
-      <c r="DG3" s="79"/>
-      <c r="DH3" s="79"/>
-      <c r="DI3" s="79"/>
-      <c r="DJ3" s="79"/>
-      <c r="DK3" s="79"/>
-      <c r="DL3" s="79"/>
-      <c r="DM3" s="79"/>
-      <c r="DN3" s="79"/>
-      <c r="DO3" s="79"/>
-      <c r="DP3" s="79"/>
-      <c r="DQ3" s="79"/>
-      <c r="DR3" s="79"/>
-      <c r="DS3" s="79"/>
-      <c r="DT3" s="79"/>
-      <c r="DU3" s="79"/>
-      <c r="DV3" s="80"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="90"/>
+      <c r="BY3" s="90"/>
+      <c r="BZ3" s="90"/>
+      <c r="CA3" s="90"/>
+      <c r="CB3" s="90"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="90"/>
+      <c r="CE3" s="90"/>
+      <c r="CF3" s="90"/>
+      <c r="CG3" s="90"/>
+      <c r="CH3" s="90"/>
+      <c r="CI3" s="90"/>
+      <c r="CJ3" s="90"/>
+      <c r="CK3" s="90"/>
+      <c r="CL3" s="90"/>
+      <c r="CM3" s="90"/>
+      <c r="CN3" s="90"/>
+      <c r="CO3" s="90"/>
+      <c r="CP3" s="90"/>
+      <c r="CQ3" s="90"/>
+      <c r="CR3" s="90"/>
+      <c r="CS3" s="90"/>
+      <c r="CT3" s="90"/>
+      <c r="CU3" s="90"/>
+      <c r="CV3" s="90"/>
+      <c r="CW3" s="90"/>
+      <c r="CX3" s="90"/>
+      <c r="CY3" s="90"/>
+      <c r="CZ3" s="90"/>
+      <c r="DA3" s="90"/>
+      <c r="DB3" s="90"/>
+      <c r="DC3" s="90"/>
+      <c r="DD3" s="90"/>
+      <c r="DE3" s="90"/>
+      <c r="DF3" s="90"/>
+      <c r="DG3" s="90"/>
+      <c r="DH3" s="90"/>
+      <c r="DI3" s="90"/>
+      <c r="DJ3" s="90"/>
+      <c r="DK3" s="90"/>
+      <c r="DL3" s="90"/>
+      <c r="DM3" s="90"/>
+      <c r="DN3" s="90"/>
+      <c r="DO3" s="90"/>
+      <c r="DP3" s="90"/>
+      <c r="DQ3" s="90"/>
+      <c r="DR3" s="90"/>
+      <c r="DS3" s="90"/>
+      <c r="DT3" s="90"/>
+      <c r="DU3" s="90"/>
+      <c r="DV3" s="91"/>
     </row>
     <row r="4" spans="1:127" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="66">
+      <c r="E4" s="87">
         <f>DATE(YEAR($E$3),MONTH($E$3),DAY($E$3))</f>
         <v>44044</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="66">
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="87">
         <f>DATE(YEAR($E$3),MONTH($E$3)+1,DAY($E$3))</f>
         <v>44075</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="67"/>
-      <c r="BK4" s="67"/>
-      <c r="BL4" s="67"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="66">
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="92"/>
+      <c r="BN4" s="87">
         <f>DATE(YEAR($E$3),MONTH($E$3)+2,DAY($E$3))</f>
         <v>44105</v>
       </c>
-      <c r="BO4" s="67"/>
-      <c r="BP4" s="67"/>
-      <c r="BQ4" s="67"/>
-      <c r="BR4" s="67"/>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="67"/>
-      <c r="BY4" s="67"/>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67"/>
-      <c r="CB4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="67"/>
-      <c r="CF4" s="67"/>
-      <c r="CG4" s="67"/>
-      <c r="CH4" s="67"/>
-      <c r="CI4" s="67"/>
-      <c r="CJ4" s="67"/>
-      <c r="CK4" s="67"/>
-      <c r="CL4" s="67"/>
-      <c r="CM4" s="67"/>
-      <c r="CN4" s="67"/>
-      <c r="CO4" s="67"/>
-      <c r="CP4" s="67"/>
-      <c r="CQ4" s="67"/>
-      <c r="CR4" s="66">
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="88"/>
+      <c r="CG4" s="88"/>
+      <c r="CH4" s="88"/>
+      <c r="CI4" s="88"/>
+      <c r="CJ4" s="88"/>
+      <c r="CK4" s="88"/>
+      <c r="CL4" s="88"/>
+      <c r="CM4" s="88"/>
+      <c r="CN4" s="88"/>
+      <c r="CO4" s="88"/>
+      <c r="CP4" s="88"/>
+      <c r="CQ4" s="88"/>
+      <c r="CR4" s="87">
         <f>DATE(YEAR($E$3),MONTH($E$3)+3,DAY($E$3))</f>
         <v>44136</v>
       </c>
-      <c r="CS4" s="67"/>
-      <c r="CT4" s="67"/>
-      <c r="CU4" s="67"/>
-      <c r="CV4" s="67"/>
-      <c r="CW4" s="67"/>
-      <c r="CX4" s="67"/>
-      <c r="CY4" s="67"/>
-      <c r="CZ4" s="67"/>
-      <c r="DA4" s="67"/>
-      <c r="DB4" s="67"/>
-      <c r="DC4" s="67"/>
-      <c r="DD4" s="67"/>
-      <c r="DE4" s="67"/>
-      <c r="DF4" s="67"/>
-      <c r="DG4" s="67"/>
-      <c r="DH4" s="67"/>
-      <c r="DI4" s="67"/>
-      <c r="DJ4" s="67"/>
-      <c r="DK4" s="67"/>
-      <c r="DL4" s="67"/>
-      <c r="DM4" s="67"/>
-      <c r="DN4" s="67"/>
-      <c r="DO4" s="67"/>
-      <c r="DP4" s="67"/>
-      <c r="DQ4" s="67"/>
-      <c r="DR4" s="67"/>
-      <c r="DS4" s="67"/>
-      <c r="DT4" s="67"/>
-      <c r="DU4" s="67"/>
-      <c r="DV4" s="68"/>
+      <c r="CS4" s="88"/>
+      <c r="CT4" s="88"/>
+      <c r="CU4" s="88"/>
+      <c r="CV4" s="88"/>
+      <c r="CW4" s="88"/>
+      <c r="CX4" s="88"/>
+      <c r="CY4" s="88"/>
+      <c r="CZ4" s="88"/>
+      <c r="DA4" s="88"/>
+      <c r="DB4" s="88"/>
+      <c r="DC4" s="88"/>
+      <c r="DD4" s="88"/>
+      <c r="DE4" s="88"/>
+      <c r="DF4" s="88"/>
+      <c r="DG4" s="88"/>
+      <c r="DH4" s="88"/>
+      <c r="DI4" s="88"/>
+      <c r="DJ4" s="88"/>
+      <c r="DK4" s="88"/>
+      <c r="DL4" s="88"/>
+      <c r="DM4" s="88"/>
+      <c r="DN4" s="88"/>
+      <c r="DO4" s="88"/>
+      <c r="DP4" s="88"/>
+      <c r="DQ4" s="88"/>
+      <c r="DR4" s="88"/>
+      <c r="DS4" s="88"/>
+      <c r="DT4" s="88"/>
+      <c r="DU4" s="88"/>
+      <c r="DV4" s="92"/>
     </row>
     <row r="5" spans="1:127" ht="13.5" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="7">
         <f>E4</f>
         <v>44044</v>
@@ -4745,10 +4674,10 @@
       <c r="DW5" s="19"/>
     </row>
     <row r="6" spans="1:127" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="24" t="str">
         <f t="shared" ref="E6:AH6" si="4">TEXT($E$4+DAY(E5)-1,"aaa")</f>
         <v>土</v>
@@ -5240,12 +5169,12 @@
       <c r="DW6" s="19"/>
     </row>
     <row r="7" spans="1:127">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -5371,12 +5300,12 @@
       <c r="DW7" s="19"/>
     </row>
     <row r="8" spans="1:127">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -5502,12 +5431,12 @@
       <c r="DW8" s="19"/>
     </row>
     <row r="9" spans="1:127" ht="159.75" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -5975,34 +5904,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="10">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="AI4:BM4"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="BN4:CQ4"/>
     <mergeCell ref="E3:DV3"/>
     <mergeCell ref="CR4:DV4"/>
     <mergeCell ref="E4:AH4"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="AI4:BM4"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E5:DV6">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>EXACT(E$6,"土")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>OR(EXACT(E$6,"日"), IF(ISERROR(VLOOKUP(E$5,$A$14:$B$43,1,FALSE)),FALSE,TRUE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:DV9">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>EXACT(E$6,"土")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>OR(EXACT(E$6,"日"),IF(ISERROR(VLOOKUP(E$5,$A$14:$B$43,1,FALSE)),FALSE,TRUE))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6024,10 +5953,10 @@
   <dimension ref="A1:DY133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="O16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13:D15"/>
+      <selection pane="bottomRight" activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6042,155 +5971,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="13.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="F1" s="37"/>
-      <c r="O1" s="118"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:129" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:129" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="37"/>
-      <c r="G3" s="78">
+      <c r="G3" s="89">
         <v>44044</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="79"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="79"/>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="79"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="79"/>
-      <c r="AW3" s="79"/>
-      <c r="AX3" s="79"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="79"/>
-      <c r="BA3" s="79"/>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="79"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="79"/>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="79"/>
-      <c r="BY3" s="79"/>
-      <c r="BZ3" s="79"/>
-      <c r="CA3" s="79"/>
-      <c r="CB3" s="79"/>
-      <c r="CC3" s="79"/>
-      <c r="CD3" s="79"/>
-      <c r="CE3" s="79"/>
-      <c r="CF3" s="79"/>
-      <c r="CG3" s="79"/>
-      <c r="CH3" s="79"/>
-      <c r="CI3" s="79"/>
-      <c r="CJ3" s="79"/>
-      <c r="CK3" s="79"/>
-      <c r="CL3" s="79"/>
-      <c r="CM3" s="79"/>
-      <c r="CN3" s="79"/>
-      <c r="CO3" s="79"/>
-      <c r="CP3" s="79"/>
-      <c r="CQ3" s="79"/>
-      <c r="CR3" s="79"/>
-      <c r="CS3" s="79"/>
-      <c r="CT3" s="79"/>
-      <c r="CU3" s="79"/>
-      <c r="CV3" s="79"/>
-      <c r="CW3" s="79"/>
-      <c r="CX3" s="79"/>
-      <c r="CY3" s="79"/>
-      <c r="CZ3" s="79"/>
-      <c r="DA3" s="79"/>
-      <c r="DB3" s="79"/>
-      <c r="DC3" s="79"/>
-      <c r="DD3" s="79"/>
-      <c r="DE3" s="79"/>
-      <c r="DF3" s="79"/>
-      <c r="DG3" s="79"/>
-      <c r="DH3" s="79"/>
-      <c r="DI3" s="79"/>
-      <c r="DJ3" s="79"/>
-      <c r="DK3" s="79"/>
-      <c r="DL3" s="79"/>
-      <c r="DM3" s="79"/>
-      <c r="DN3" s="79"/>
-      <c r="DO3" s="79"/>
-      <c r="DP3" s="79"/>
-      <c r="DQ3" s="79"/>
-      <c r="DR3" s="79"/>
-      <c r="DS3" s="79"/>
-      <c r="DT3" s="79"/>
-      <c r="DU3" s="79"/>
-      <c r="DV3" s="79"/>
-      <c r="DW3" s="79"/>
-      <c r="DX3" s="80"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="90"/>
+      <c r="AS3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="90"/>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="90"/>
+      <c r="BH3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BP3" s="90"/>
+      <c r="BQ3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BS3" s="90"/>
+      <c r="BT3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="90"/>
+      <c r="BW3" s="90"/>
+      <c r="BX3" s="90"/>
+      <c r="BY3" s="90"/>
+      <c r="BZ3" s="90"/>
+      <c r="CA3" s="90"/>
+      <c r="CB3" s="90"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="90"/>
+      <c r="CE3" s="90"/>
+      <c r="CF3" s="90"/>
+      <c r="CG3" s="90"/>
+      <c r="CH3" s="90"/>
+      <c r="CI3" s="90"/>
+      <c r="CJ3" s="90"/>
+      <c r="CK3" s="90"/>
+      <c r="CL3" s="90"/>
+      <c r="CM3" s="90"/>
+      <c r="CN3" s="90"/>
+      <c r="CO3" s="90"/>
+      <c r="CP3" s="90"/>
+      <c r="CQ3" s="90"/>
+      <c r="CR3" s="90"/>
+      <c r="CS3" s="90"/>
+      <c r="CT3" s="90"/>
+      <c r="CU3" s="90"/>
+      <c r="CV3" s="90"/>
+      <c r="CW3" s="90"/>
+      <c r="CX3" s="90"/>
+      <c r="CY3" s="90"/>
+      <c r="CZ3" s="90"/>
+      <c r="DA3" s="90"/>
+      <c r="DB3" s="90"/>
+      <c r="DC3" s="90"/>
+      <c r="DD3" s="90"/>
+      <c r="DE3" s="90"/>
+      <c r="DF3" s="90"/>
+      <c r="DG3" s="90"/>
+      <c r="DH3" s="90"/>
+      <c r="DI3" s="90"/>
+      <c r="DJ3" s="90"/>
+      <c r="DK3" s="90"/>
+      <c r="DL3" s="90"/>
+      <c r="DM3" s="90"/>
+      <c r="DN3" s="90"/>
+      <c r="DO3" s="90"/>
+      <c r="DP3" s="90"/>
+      <c r="DQ3" s="90"/>
+      <c r="DR3" s="90"/>
+      <c r="DS3" s="90"/>
+      <c r="DT3" s="90"/>
+      <c r="DU3" s="90"/>
+      <c r="DV3" s="90"/>
+      <c r="DW3" s="90"/>
+      <c r="DX3" s="91"/>
     </row>
     <row r="4" spans="1:129" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
@@ -6199,157 +6128,157 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="66">
+      <c r="G4" s="87">
         <f>DATE(YEAR($G$3),MONTH($G$3),DAY($G$3))</f>
         <v>44044</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="66">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="87">
         <f>DATE(YEAR($G$3),MONTH($G$3)+1,DAY($G$3))</f>
         <v>44075</v>
       </c>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="67"/>
-      <c r="BK4" s="67"/>
-      <c r="BL4" s="67"/>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="67"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="66">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="88"/>
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="92"/>
+      <c r="BP4" s="87">
         <f>DATE(YEAR($G$3),MONTH($G$3)+2,DAY($G$3))</f>
         <v>44105</v>
       </c>
-      <c r="BQ4" s="67"/>
-      <c r="BR4" s="67"/>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="67"/>
-      <c r="BY4" s="67"/>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67"/>
-      <c r="CB4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="67"/>
-      <c r="CF4" s="67"/>
-      <c r="CG4" s="67"/>
-      <c r="CH4" s="67"/>
-      <c r="CI4" s="67"/>
-      <c r="CJ4" s="67"/>
-      <c r="CK4" s="67"/>
-      <c r="CL4" s="67"/>
-      <c r="CM4" s="67"/>
-      <c r="CN4" s="67"/>
-      <c r="CO4" s="67"/>
-      <c r="CP4" s="67"/>
-      <c r="CQ4" s="67"/>
-      <c r="CR4" s="67"/>
-      <c r="CS4" s="67"/>
-      <c r="CT4" s="66">
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="88"/>
+      <c r="CG4" s="88"/>
+      <c r="CH4" s="88"/>
+      <c r="CI4" s="88"/>
+      <c r="CJ4" s="88"/>
+      <c r="CK4" s="88"/>
+      <c r="CL4" s="88"/>
+      <c r="CM4" s="88"/>
+      <c r="CN4" s="88"/>
+      <c r="CO4" s="88"/>
+      <c r="CP4" s="88"/>
+      <c r="CQ4" s="88"/>
+      <c r="CR4" s="88"/>
+      <c r="CS4" s="88"/>
+      <c r="CT4" s="87">
         <f>DATE(YEAR($G$3),MONTH($G$3)+3,DAY($G$3))</f>
         <v>44136</v>
       </c>
-      <c r="CU4" s="67"/>
-      <c r="CV4" s="67"/>
-      <c r="CW4" s="67"/>
-      <c r="CX4" s="67"/>
-      <c r="CY4" s="67"/>
-      <c r="CZ4" s="67"/>
-      <c r="DA4" s="67"/>
-      <c r="DB4" s="67"/>
-      <c r="DC4" s="67"/>
-      <c r="DD4" s="67"/>
-      <c r="DE4" s="67"/>
-      <c r="DF4" s="67"/>
-      <c r="DG4" s="67"/>
-      <c r="DH4" s="67"/>
-      <c r="DI4" s="67"/>
-      <c r="DJ4" s="67"/>
-      <c r="DK4" s="67"/>
-      <c r="DL4" s="67"/>
-      <c r="DM4" s="67"/>
-      <c r="DN4" s="67"/>
-      <c r="DO4" s="67"/>
-      <c r="DP4" s="67"/>
-      <c r="DQ4" s="67"/>
-      <c r="DR4" s="67"/>
-      <c r="DS4" s="67"/>
-      <c r="DT4" s="67"/>
-      <c r="DU4" s="67"/>
-      <c r="DV4" s="67"/>
-      <c r="DW4" s="67"/>
-      <c r="DX4" s="68"/>
+      <c r="CU4" s="88"/>
+      <c r="CV4" s="88"/>
+      <c r="CW4" s="88"/>
+      <c r="CX4" s="88"/>
+      <c r="CY4" s="88"/>
+      <c r="CZ4" s="88"/>
+      <c r="DA4" s="88"/>
+      <c r="DB4" s="88"/>
+      <c r="DC4" s="88"/>
+      <c r="DD4" s="88"/>
+      <c r="DE4" s="88"/>
+      <c r="DF4" s="88"/>
+      <c r="DG4" s="88"/>
+      <c r="DH4" s="88"/>
+      <c r="DI4" s="88"/>
+      <c r="DJ4" s="88"/>
+      <c r="DK4" s="88"/>
+      <c r="DL4" s="88"/>
+      <c r="DM4" s="88"/>
+      <c r="DN4" s="88"/>
+      <c r="DO4" s="88"/>
+      <c r="DP4" s="88"/>
+      <c r="DQ4" s="88"/>
+      <c r="DR4" s="88"/>
+      <c r="DS4" s="88"/>
+      <c r="DT4" s="88"/>
+      <c r="DU4" s="88"/>
+      <c r="DV4" s="88"/>
+      <c r="DW4" s="88"/>
+      <c r="DX4" s="92"/>
     </row>
     <row r="5" spans="1:129" ht="13.5" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="109" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="119">
+      <c r="G5" s="63">
         <f>G4</f>
         <v>44044</v>
       </c>
@@ -6465,11 +6394,11 @@
         <f t="shared" si="0"/>
         <v>44072</v>
       </c>
-      <c r="AJ5" s="120">
+      <c r="AJ5" s="64">
         <f t="shared" si="0"/>
         <v>44073</v>
       </c>
-      <c r="AK5" s="119">
+      <c r="AK5" s="63">
         <f>AK4</f>
         <v>44075</v>
       </c>
@@ -6589,11 +6518,11 @@
         <f t="shared" si="1"/>
         <v>44104</v>
       </c>
-      <c r="BO5" s="120">
+      <c r="BO5" s="64">
         <f t="shared" si="1"/>
         <v>44105</v>
       </c>
-      <c r="BP5" s="119">
+      <c r="BP5" s="63">
         <f>BP4</f>
         <v>44105</v>
       </c>
@@ -6709,11 +6638,11 @@
         <f t="shared" si="2"/>
         <v>44133</v>
       </c>
-      <c r="CS5" s="120">
+      <c r="CS5" s="64">
         <f t="shared" si="2"/>
         <v>44134</v>
       </c>
-      <c r="CT5" s="119">
+      <c r="CT5" s="63">
         <f>CT4</f>
         <v>44136</v>
       </c>
@@ -6833,7 +6762,7 @@
         <f t="shared" si="3"/>
         <v>44165</v>
       </c>
-      <c r="DX5" s="120">
+      <c r="DX5" s="64">
         <f t="shared" si="3"/>
         <v>44166</v>
       </c>
@@ -6849,10 +6778,10 @@
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="121" t="str">
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="65" t="str">
         <f t="shared" ref="G6:AJ6" si="4">TEXT($G$4+DAY(G5)-1,"aaa")</f>
         <v>土</v>
       </c>
@@ -6968,11 +6897,11 @@
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AJ6" s="122" t="str">
+      <c r="AJ6" s="66" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AK6" s="121" t="str">
+      <c r="AK6" s="65" t="str">
         <f t="shared" ref="AK6:BO6" si="5">TEXT($AK$4+DAY(AK5)-1,"aaa")</f>
         <v>火</v>
       </c>
@@ -7092,11 +7021,11 @@
         <f t="shared" si="5"/>
         <v>水</v>
       </c>
-      <c r="BO6" s="122" t="str">
+      <c r="BO6" s="66" t="str">
         <f t="shared" si="5"/>
         <v>火</v>
       </c>
-      <c r="BP6" s="121" t="str">
+      <c r="BP6" s="65" t="str">
         <f t="shared" ref="BP6:CS6" si="6">TEXT($BP$4+DAY(BP5)-1,"aaa")</f>
         <v>木</v>
       </c>
@@ -7212,11 +7141,11 @@
         <f t="shared" si="6"/>
         <v>木</v>
       </c>
-      <c r="CS6" s="122" t="str">
+      <c r="CS6" s="66" t="str">
         <f t="shared" si="6"/>
         <v>金</v>
       </c>
-      <c r="CT6" s="121" t="str">
+      <c r="CT6" s="65" t="str">
         <f t="shared" ref="CT6:DX6" si="7">TEXT($CT$4+DAY(CT5)-1,"aaa")</f>
         <v>日</v>
       </c>
@@ -7336,33 +7265,33 @@
         <f t="shared" si="7"/>
         <v>月</v>
       </c>
-      <c r="DX6" s="122" t="str">
+      <c r="DX6" s="66" t="str">
         <f t="shared" si="7"/>
         <v>日</v>
       </c>
       <c r="DY6" s="19"/>
     </row>
     <row r="7" spans="1:129" ht="12" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="123">
         <f>SUM($G8:$DX8)</f>
         <v>28</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="123"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
@@ -7391,8 +7320,8 @@
       <c r="AG7" s="59"/>
       <c r="AH7" s="59"/>
       <c r="AI7" s="59"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="67"/>
       <c r="AL7" s="59"/>
       <c r="AM7" s="59"/>
       <c r="AN7" s="59"/>
@@ -7422,8 +7351,8 @@
       <c r="BL7" s="59"/>
       <c r="BM7" s="59"/>
       <c r="BN7" s="59"/>
-      <c r="BO7" s="124"/>
-      <c r="BP7" s="123"/>
+      <c r="BO7" s="68"/>
+      <c r="BP7" s="67"/>
       <c r="BQ7" s="59"/>
       <c r="BR7" s="59"/>
       <c r="BS7" s="59"/>
@@ -7452,8 +7381,8 @@
       <c r="CP7" s="59"/>
       <c r="CQ7" s="59"/>
       <c r="CR7" s="59"/>
-      <c r="CS7" s="124"/>
-      <c r="CT7" s="123"/>
+      <c r="CS7" s="68"/>
+      <c r="CT7" s="67"/>
       <c r="CU7" s="59"/>
       <c r="CV7" s="59"/>
       <c r="CW7" s="59"/>
@@ -7483,17 +7412,17 @@
       <c r="DU7" s="59"/>
       <c r="DV7" s="59"/>
       <c r="DW7" s="59"/>
-      <c r="DX7" s="124"/>
+      <c r="DX7" s="68"/>
       <c r="DY7" s="19"/>
     </row>
     <row r="8" spans="1:129" ht="22.5" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="125"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58">
         <v>8</v>
@@ -7530,8 +7459,8 @@
       <c r="AG8" s="58"/>
       <c r="AH8" s="58"/>
       <c r="AI8" s="58"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="125"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="69"/>
       <c r="AL8" s="58"/>
       <c r="AM8" s="58"/>
       <c r="AN8" s="58"/>
@@ -7561,8 +7490,8 @@
       <c r="BL8" s="58"/>
       <c r="BM8" s="58"/>
       <c r="BN8" s="58"/>
-      <c r="BO8" s="126"/>
-      <c r="BP8" s="125"/>
+      <c r="BO8" s="70"/>
+      <c r="BP8" s="69"/>
       <c r="BQ8" s="58"/>
       <c r="BR8" s="58"/>
       <c r="BS8" s="58"/>
@@ -7591,8 +7520,8 @@
       <c r="CP8" s="58"/>
       <c r="CQ8" s="58"/>
       <c r="CR8" s="58"/>
-      <c r="CS8" s="126"/>
-      <c r="CT8" s="125"/>
+      <c r="CS8" s="70"/>
+      <c r="CT8" s="69"/>
       <c r="CU8" s="58"/>
       <c r="CV8" s="58"/>
       <c r="CW8" s="58"/>
@@ -7622,17 +7551,17 @@
       <c r="DU8" s="58"/>
       <c r="DV8" s="58"/>
       <c r="DW8" s="58"/>
-      <c r="DX8" s="126"/>
+      <c r="DX8" s="70"/>
       <c r="DY8" s="19"/>
     </row>
     <row r="9" spans="1:129" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="127"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -7661,8 +7590,8 @@
       <c r="AG9" s="57"/>
       <c r="AH9" s="57"/>
       <c r="AI9" s="57"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="127"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="71"/>
       <c r="AL9" s="57"/>
       <c r="AM9" s="57"/>
       <c r="AN9" s="57"/>
@@ -7692,8 +7621,8 @@
       <c r="BL9" s="57"/>
       <c r="BM9" s="57"/>
       <c r="BN9" s="57"/>
-      <c r="BO9" s="128"/>
-      <c r="BP9" s="127"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="71"/>
       <c r="BQ9" s="57"/>
       <c r="BR9" s="57"/>
       <c r="BS9" s="57"/>
@@ -7722,8 +7651,8 @@
       <c r="CP9" s="57"/>
       <c r="CQ9" s="57"/>
       <c r="CR9" s="57"/>
-      <c r="CS9" s="128"/>
-      <c r="CT9" s="127"/>
+      <c r="CS9" s="72"/>
+      <c r="CT9" s="71"/>
       <c r="CU9" s="57"/>
       <c r="CV9" s="57"/>
       <c r="CW9" s="57"/>
@@ -7753,30 +7682,30 @@
       <c r="DU9" s="57"/>
       <c r="DV9" s="57"/>
       <c r="DW9" s="57"/>
-      <c r="DX9" s="128"/>
+      <c r="DX9" s="72"/>
       <c r="DY9" s="19"/>
     </row>
     <row r="10" spans="1:129" ht="12" customHeight="1" thickTop="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="140" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="123">
         <f>SUM($G11:$DX11)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="130"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -7805,8 +7734,8 @@
       <c r="AG10" s="56"/>
       <c r="AH10" s="56"/>
       <c r="AI10" s="56"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="130"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="73"/>
       <c r="AL10" s="56"/>
       <c r="AM10" s="56"/>
       <c r="AN10" s="56"/>
@@ -7836,8 +7765,8 @@
       <c r="BL10" s="56"/>
       <c r="BM10" s="56"/>
       <c r="BN10" s="56"/>
-      <c r="BO10" s="131"/>
-      <c r="BP10" s="130"/>
+      <c r="BO10" s="74"/>
+      <c r="BP10" s="73"/>
       <c r="BQ10" s="56"/>
       <c r="BR10" s="56"/>
       <c r="BS10" s="56"/>
@@ -7866,8 +7795,8 @@
       <c r="CP10" s="56"/>
       <c r="CQ10" s="56"/>
       <c r="CR10" s="56"/>
-      <c r="CS10" s="131"/>
-      <c r="CT10" s="130"/>
+      <c r="CS10" s="74"/>
+      <c r="CT10" s="73"/>
       <c r="CU10" s="56"/>
       <c r="CV10" s="56"/>
       <c r="CW10" s="56"/>
@@ -7897,17 +7826,17 @@
       <c r="DU10" s="56"/>
       <c r="DV10" s="56"/>
       <c r="DW10" s="56"/>
-      <c r="DX10" s="131"/>
+      <c r="DX10" s="74"/>
       <c r="DY10" s="19"/>
     </row>
     <row r="11" spans="1:129" ht="22.5" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="125"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="58"/>
       <c r="I11" s="58"/>
       <c r="J11" s="58"/>
@@ -7936,8 +7865,8 @@
       <c r="AG11" s="58"/>
       <c r="AH11" s="58"/>
       <c r="AI11" s="58"/>
-      <c r="AJ11" s="126"/>
-      <c r="AK11" s="125"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="69"/>
       <c r="AL11" s="58"/>
       <c r="AM11" s="58"/>
       <c r="AN11" s="58"/>
@@ -7967,8 +7896,8 @@
       <c r="BL11" s="58"/>
       <c r="BM11" s="58"/>
       <c r="BN11" s="58"/>
-      <c r="BO11" s="126"/>
-      <c r="BP11" s="125"/>
+      <c r="BO11" s="70"/>
+      <c r="BP11" s="69"/>
       <c r="BQ11" s="58"/>
       <c r="BR11" s="58"/>
       <c r="BS11" s="58"/>
@@ -7997,8 +7926,8 @@
       <c r="CP11" s="58"/>
       <c r="CQ11" s="58"/>
       <c r="CR11" s="58"/>
-      <c r="CS11" s="126"/>
-      <c r="CT11" s="125"/>
+      <c r="CS11" s="70"/>
+      <c r="CT11" s="69"/>
       <c r="CU11" s="58"/>
       <c r="CV11" s="58"/>
       <c r="CW11" s="58"/>
@@ -8028,17 +7957,17 @@
       <c r="DU11" s="58"/>
       <c r="DV11" s="58"/>
       <c r="DW11" s="58"/>
-      <c r="DX11" s="126"/>
+      <c r="DX11" s="70"/>
       <c r="DY11" s="19"/>
     </row>
     <row r="12" spans="1:129" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="127"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
@@ -8067,8 +7996,8 @@
       <c r="AG12" s="57"/>
       <c r="AH12" s="57"/>
       <c r="AI12" s="57"/>
-      <c r="AJ12" s="128"/>
-      <c r="AK12" s="127"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="71"/>
       <c r="AL12" s="57"/>
       <c r="AM12" s="57"/>
       <c r="AN12" s="57"/>
@@ -8098,8 +8027,8 @@
       <c r="BL12" s="57"/>
       <c r="BM12" s="57"/>
       <c r="BN12" s="57"/>
-      <c r="BO12" s="128"/>
-      <c r="BP12" s="127"/>
+      <c r="BO12" s="72"/>
+      <c r="BP12" s="71"/>
       <c r="BQ12" s="57"/>
       <c r="BR12" s="57"/>
       <c r="BS12" s="57"/>
@@ -8128,8 +8057,8 @@
       <c r="CP12" s="57"/>
       <c r="CQ12" s="57"/>
       <c r="CR12" s="57"/>
-      <c r="CS12" s="128"/>
-      <c r="CT12" s="127"/>
+      <c r="CS12" s="72"/>
+      <c r="CT12" s="71"/>
       <c r="CU12" s="57"/>
       <c r="CV12" s="57"/>
       <c r="CW12" s="57"/>
@@ -8159,30 +8088,30 @@
       <c r="DU12" s="57"/>
       <c r="DV12" s="57"/>
       <c r="DW12" s="57"/>
-      <c r="DX12" s="128"/>
+      <c r="DX12" s="72"/>
       <c r="DY12" s="19"/>
     </row>
     <row r="13" spans="1:129" ht="12" customHeight="1" thickTop="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="123">
         <f>SUM($G14:$DX14)</f>
         <v>24</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="130"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -8211,8 +8140,8 @@
       <c r="AG13" s="56"/>
       <c r="AH13" s="56"/>
       <c r="AI13" s="56"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="130"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="73"/>
       <c r="AL13" s="56"/>
       <c r="AM13" s="56"/>
       <c r="AN13" s="56"/>
@@ -8242,8 +8171,8 @@
       <c r="BL13" s="56"/>
       <c r="BM13" s="56"/>
       <c r="BN13" s="56"/>
-      <c r="BO13" s="131"/>
-      <c r="BP13" s="130"/>
+      <c r="BO13" s="74"/>
+      <c r="BP13" s="73"/>
       <c r="BQ13" s="56"/>
       <c r="BR13" s="56"/>
       <c r="BS13" s="56"/>
@@ -8272,8 +8201,8 @@
       <c r="CP13" s="56"/>
       <c r="CQ13" s="56"/>
       <c r="CR13" s="56"/>
-      <c r="CS13" s="131"/>
-      <c r="CT13" s="130"/>
+      <c r="CS13" s="74"/>
+      <c r="CT13" s="73"/>
       <c r="CU13" s="56"/>
       <c r="CV13" s="56"/>
       <c r="CW13" s="56"/>
@@ -8303,17 +8232,17 @@
       <c r="DU13" s="56"/>
       <c r="DV13" s="56"/>
       <c r="DW13" s="56"/>
-      <c r="DX13" s="131"/>
+      <c r="DX13" s="74"/>
       <c r="DY13" s="19"/>
     </row>
     <row r="14" spans="1:129" ht="22.5" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="125"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="58"/>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
@@ -8348,8 +8277,8 @@
       <c r="AG14" s="58"/>
       <c r="AH14" s="58"/>
       <c r="AI14" s="58"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="125"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="69"/>
       <c r="AL14" s="58"/>
       <c r="AM14" s="58"/>
       <c r="AN14" s="58"/>
@@ -8379,8 +8308,8 @@
       <c r="BL14" s="58"/>
       <c r="BM14" s="58"/>
       <c r="BN14" s="58"/>
-      <c r="BO14" s="126"/>
-      <c r="BP14" s="125"/>
+      <c r="BO14" s="70"/>
+      <c r="BP14" s="69"/>
       <c r="BQ14" s="58"/>
       <c r="BR14" s="58"/>
       <c r="BS14" s="58"/>
@@ -8409,8 +8338,8 @@
       <c r="CP14" s="58"/>
       <c r="CQ14" s="58"/>
       <c r="CR14" s="58"/>
-      <c r="CS14" s="126"/>
-      <c r="CT14" s="125"/>
+      <c r="CS14" s="70"/>
+      <c r="CT14" s="69"/>
       <c r="CU14" s="58"/>
       <c r="CV14" s="58"/>
       <c r="CW14" s="58"/>
@@ -8440,17 +8369,17 @@
       <c r="DU14" s="58"/>
       <c r="DV14" s="58"/>
       <c r="DW14" s="58"/>
-      <c r="DX14" s="126"/>
+      <c r="DX14" s="70"/>
       <c r="DY14" s="19"/>
     </row>
     <row r="15" spans="1:129" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="127"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
@@ -8479,8 +8408,8 @@
       <c r="AG15" s="57"/>
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
-      <c r="AJ15" s="128"/>
-      <c r="AK15" s="127"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="71"/>
       <c r="AL15" s="57"/>
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
@@ -8510,8 +8439,8 @@
       <c r="BL15" s="57"/>
       <c r="BM15" s="57"/>
       <c r="BN15" s="57"/>
-      <c r="BO15" s="128"/>
-      <c r="BP15" s="127"/>
+      <c r="BO15" s="72"/>
+      <c r="BP15" s="71"/>
       <c r="BQ15" s="57"/>
       <c r="BR15" s="57"/>
       <c r="BS15" s="57"/>
@@ -8540,8 +8469,8 @@
       <c r="CP15" s="57"/>
       <c r="CQ15" s="57"/>
       <c r="CR15" s="57"/>
-      <c r="CS15" s="128"/>
-      <c r="CT15" s="127"/>
+      <c r="CS15" s="72"/>
+      <c r="CT15" s="71"/>
       <c r="CU15" s="57"/>
       <c r="CV15" s="57"/>
       <c r="CW15" s="57"/>
@@ -8571,30 +8500,30 @@
       <c r="DU15" s="57"/>
       <c r="DV15" s="57"/>
       <c r="DW15" s="57"/>
-      <c r="DX15" s="128"/>
+      <c r="DX15" s="72"/>
       <c r="DY15" s="19"/>
     </row>
     <row r="16" spans="1:129" ht="12" customHeight="1" thickTop="1">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="123">
         <f>SUM($G17:$DX17)</f>
         <v>32</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="130"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -8623,8 +8552,8 @@
       <c r="AG16" s="56"/>
       <c r="AH16" s="56"/>
       <c r="AI16" s="56"/>
-      <c r="AJ16" s="131"/>
-      <c r="AK16" s="130"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="73"/>
       <c r="AL16" s="56"/>
       <c r="AM16" s="56"/>
       <c r="AN16" s="56"/>
@@ -8654,8 +8583,8 @@
       <c r="BL16" s="56"/>
       <c r="BM16" s="56"/>
       <c r="BN16" s="56"/>
-      <c r="BO16" s="131"/>
-      <c r="BP16" s="130"/>
+      <c r="BO16" s="74"/>
+      <c r="BP16" s="73"/>
       <c r="BQ16" s="56"/>
       <c r="BR16" s="56"/>
       <c r="BS16" s="56"/>
@@ -8684,8 +8613,8 @@
       <c r="CP16" s="56"/>
       <c r="CQ16" s="56"/>
       <c r="CR16" s="56"/>
-      <c r="CS16" s="131"/>
-      <c r="CT16" s="130"/>
+      <c r="CS16" s="74"/>
+      <c r="CT16" s="73"/>
       <c r="CU16" s="56"/>
       <c r="CV16" s="56"/>
       <c r="CW16" s="56"/>
@@ -8715,17 +8644,17 @@
       <c r="DU16" s="56"/>
       <c r="DV16" s="56"/>
       <c r="DW16" s="56"/>
-      <c r="DX16" s="131"/>
+      <c r="DX16" s="74"/>
       <c r="DY16" s="19"/>
     </row>
     <row r="17" spans="1:129" ht="22.5" customHeight="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="125"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
@@ -8762,8 +8691,8 @@
       <c r="AG17" s="58"/>
       <c r="AH17" s="58"/>
       <c r="AI17" s="58"/>
-      <c r="AJ17" s="126"/>
-      <c r="AK17" s="125"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="69"/>
       <c r="AL17" s="58"/>
       <c r="AM17" s="58"/>
       <c r="AN17" s="58"/>
@@ -8793,8 +8722,8 @@
       <c r="BL17" s="58"/>
       <c r="BM17" s="58"/>
       <c r="BN17" s="58"/>
-      <c r="BO17" s="126"/>
-      <c r="BP17" s="125"/>
+      <c r="BO17" s="70"/>
+      <c r="BP17" s="69"/>
       <c r="BQ17" s="58"/>
       <c r="BR17" s="58"/>
       <c r="BS17" s="58"/>
@@ -8823,8 +8752,8 @@
       <c r="CP17" s="58"/>
       <c r="CQ17" s="58"/>
       <c r="CR17" s="58"/>
-      <c r="CS17" s="126"/>
-      <c r="CT17" s="125"/>
+      <c r="CS17" s="70"/>
+      <c r="CT17" s="69"/>
       <c r="CU17" s="58"/>
       <c r="CV17" s="58"/>
       <c r="CW17" s="58"/>
@@ -8854,17 +8783,17 @@
       <c r="DU17" s="58"/>
       <c r="DV17" s="58"/>
       <c r="DW17" s="58"/>
-      <c r="DX17" s="126"/>
+      <c r="DX17" s="70"/>
       <c r="DY17" s="19"/>
     </row>
     <row r="18" spans="1:129" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="127"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
@@ -8893,8 +8822,8 @@
       <c r="AG18" s="57"/>
       <c r="AH18" s="57"/>
       <c r="AI18" s="57"/>
-      <c r="AJ18" s="128"/>
-      <c r="AK18" s="127"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="71"/>
       <c r="AL18" s="57"/>
       <c r="AM18" s="57"/>
       <c r="AN18" s="57"/>
@@ -8924,8 +8853,8 @@
       <c r="BL18" s="57"/>
       <c r="BM18" s="57"/>
       <c r="BN18" s="57"/>
-      <c r="BO18" s="128"/>
-      <c r="BP18" s="127"/>
+      <c r="BO18" s="72"/>
+      <c r="BP18" s="71"/>
       <c r="BQ18" s="57"/>
       <c r="BR18" s="57"/>
       <c r="BS18" s="57"/>
@@ -8954,8 +8883,8 @@
       <c r="CP18" s="57"/>
       <c r="CQ18" s="57"/>
       <c r="CR18" s="57"/>
-      <c r="CS18" s="128"/>
-      <c r="CT18" s="127"/>
+      <c r="CS18" s="72"/>
+      <c r="CT18" s="71"/>
       <c r="CU18" s="57"/>
       <c r="CV18" s="57"/>
       <c r="CW18" s="57"/>
@@ -8985,30 +8914,30 @@
       <c r="DU18" s="57"/>
       <c r="DV18" s="57"/>
       <c r="DW18" s="57"/>
-      <c r="DX18" s="128"/>
+      <c r="DX18" s="72"/>
       <c r="DY18" s="19"/>
     </row>
     <row r="19" spans="1:129" ht="12" customHeight="1" thickTop="1">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="104">
+      <c r="E19" s="123">
         <f>SUM($G20:$DX20)</f>
         <v>40</v>
       </c>
-      <c r="F19" s="110" t="s">
+      <c r="F19" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="130"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -9037,8 +8966,8 @@
       <c r="AG19" s="56"/>
       <c r="AH19" s="56"/>
       <c r="AI19" s="56"/>
-      <c r="AJ19" s="131"/>
-      <c r="AK19" s="130"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="73"/>
       <c r="AL19" s="56"/>
       <c r="AM19" s="56"/>
       <c r="AN19" s="56"/>
@@ -9068,8 +8997,8 @@
       <c r="BL19" s="56"/>
       <c r="BM19" s="56"/>
       <c r="BN19" s="56"/>
-      <c r="BO19" s="131"/>
-      <c r="BP19" s="130"/>
+      <c r="BO19" s="74"/>
+      <c r="BP19" s="73"/>
       <c r="BQ19" s="56"/>
       <c r="BR19" s="56"/>
       <c r="BS19" s="56"/>
@@ -9098,8 +9027,8 @@
       <c r="CP19" s="56"/>
       <c r="CQ19" s="56"/>
       <c r="CR19" s="56"/>
-      <c r="CS19" s="131"/>
-      <c r="CT19" s="130"/>
+      <c r="CS19" s="74"/>
+      <c r="CT19" s="73"/>
       <c r="CU19" s="56"/>
       <c r="CV19" s="56"/>
       <c r="CW19" s="56"/>
@@ -9129,17 +9058,17 @@
       <c r="DU19" s="56"/>
       <c r="DV19" s="56"/>
       <c r="DW19" s="56"/>
-      <c r="DX19" s="131"/>
+      <c r="DX19" s="74"/>
       <c r="DY19" s="19"/>
     </row>
     <row r="20" spans="1:129" ht="22.5" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="125"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
@@ -9178,8 +9107,8 @@
       <c r="AG20" s="58"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="58"/>
-      <c r="AJ20" s="126"/>
-      <c r="AK20" s="125"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="69"/>
       <c r="AL20" s="58"/>
       <c r="AM20" s="58"/>
       <c r="AN20" s="58"/>
@@ -9209,8 +9138,8 @@
       <c r="BL20" s="58"/>
       <c r="BM20" s="58"/>
       <c r="BN20" s="58"/>
-      <c r="BO20" s="126"/>
-      <c r="BP20" s="125"/>
+      <c r="BO20" s="70"/>
+      <c r="BP20" s="69"/>
       <c r="BQ20" s="58"/>
       <c r="BR20" s="58"/>
       <c r="BS20" s="58"/>
@@ -9239,8 +9168,8 @@
       <c r="CP20" s="58"/>
       <c r="CQ20" s="58"/>
       <c r="CR20" s="58"/>
-      <c r="CS20" s="126"/>
-      <c r="CT20" s="125"/>
+      <c r="CS20" s="70"/>
+      <c r="CT20" s="69"/>
       <c r="CU20" s="58"/>
       <c r="CV20" s="58"/>
       <c r="CW20" s="58"/>
@@ -9270,17 +9199,17 @@
       <c r="DU20" s="58"/>
       <c r="DV20" s="58"/>
       <c r="DW20" s="58"/>
-      <c r="DX20" s="126"/>
+      <c r="DX20" s="70"/>
       <c r="DY20" s="19"/>
     </row>
     <row r="21" spans="1:129" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="127"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
@@ -9309,8 +9238,8 @@
       <c r="AG21" s="57"/>
       <c r="AH21" s="57"/>
       <c r="AI21" s="57"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="127"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="71"/>
       <c r="AL21" s="57"/>
       <c r="AM21" s="57"/>
       <c r="AN21" s="57"/>
@@ -9340,8 +9269,8 @@
       <c r="BL21" s="57"/>
       <c r="BM21" s="57"/>
       <c r="BN21" s="57"/>
-      <c r="BO21" s="128"/>
-      <c r="BP21" s="127"/>
+      <c r="BO21" s="72"/>
+      <c r="BP21" s="71"/>
       <c r="BQ21" s="57"/>
       <c r="BR21" s="57"/>
       <c r="BS21" s="57"/>
@@ -9370,8 +9299,8 @@
       <c r="CP21" s="57"/>
       <c r="CQ21" s="57"/>
       <c r="CR21" s="57"/>
-      <c r="CS21" s="128"/>
-      <c r="CT21" s="127"/>
+      <c r="CS21" s="72"/>
+      <c r="CT21" s="71"/>
       <c r="CU21" s="57"/>
       <c r="CV21" s="57"/>
       <c r="CW21" s="57"/>
@@ -9401,30 +9330,30 @@
       <c r="DU21" s="57"/>
       <c r="DV21" s="57"/>
       <c r="DW21" s="57"/>
-      <c r="DX21" s="128"/>
+      <c r="DX21" s="72"/>
       <c r="DY21" s="19"/>
     </row>
     <row r="22" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="123">
         <f>SUM($G23:$DX23)</f>
         <v>40</v>
       </c>
-      <c r="F22" s="110" t="s">
+      <c r="F22" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="130"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
@@ -9453,8 +9382,8 @@
       <c r="AG22" s="56"/>
       <c r="AH22" s="56"/>
       <c r="AI22" s="56"/>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="130"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="73"/>
       <c r="AL22" s="56"/>
       <c r="AM22" s="56"/>
       <c r="AN22" s="56"/>
@@ -9484,8 +9413,8 @@
       <c r="BL22" s="56"/>
       <c r="BM22" s="56"/>
       <c r="BN22" s="56"/>
-      <c r="BO22" s="131"/>
-      <c r="BP22" s="130"/>
+      <c r="BO22" s="74"/>
+      <c r="BP22" s="73"/>
       <c r="BQ22" s="56"/>
       <c r="BR22" s="56"/>
       <c r="BS22" s="56"/>
@@ -9514,8 +9443,8 @@
       <c r="CP22" s="56"/>
       <c r="CQ22" s="56"/>
       <c r="CR22" s="56"/>
-      <c r="CS22" s="131"/>
-      <c r="CT22" s="130"/>
+      <c r="CS22" s="74"/>
+      <c r="CT22" s="73"/>
       <c r="CU22" s="56"/>
       <c r="CV22" s="56"/>
       <c r="CW22" s="56"/>
@@ -9545,17 +9474,17 @@
       <c r="DU22" s="56"/>
       <c r="DV22" s="56"/>
       <c r="DW22" s="56"/>
-      <c r="DX22" s="131"/>
+      <c r="DX22" s="74"/>
       <c r="DY22" s="19"/>
     </row>
     <row r="23" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A23" s="84"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="125"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="58"/>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -9594,8 +9523,8 @@
       <c r="AG23" s="58"/>
       <c r="AH23" s="58"/>
       <c r="AI23" s="58"/>
-      <c r="AJ23" s="126"/>
-      <c r="AK23" s="125"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="69"/>
       <c r="AL23" s="58"/>
       <c r="AM23" s="58"/>
       <c r="AN23" s="58"/>
@@ -9625,8 +9554,8 @@
       <c r="BL23" s="58"/>
       <c r="BM23" s="58"/>
       <c r="BN23" s="58"/>
-      <c r="BO23" s="126"/>
-      <c r="BP23" s="125"/>
+      <c r="BO23" s="70"/>
+      <c r="BP23" s="69"/>
       <c r="BQ23" s="58"/>
       <c r="BR23" s="58"/>
       <c r="BS23" s="58"/>
@@ -9655,8 +9584,8 @@
       <c r="CP23" s="58"/>
       <c r="CQ23" s="58"/>
       <c r="CR23" s="58"/>
-      <c r="CS23" s="126"/>
-      <c r="CT23" s="125"/>
+      <c r="CS23" s="70"/>
+      <c r="CT23" s="69"/>
       <c r="CU23" s="58"/>
       <c r="CV23" s="58"/>
       <c r="CW23" s="58"/>
@@ -9686,17 +9615,17 @@
       <c r="DU23" s="58"/>
       <c r="DV23" s="58"/>
       <c r="DW23" s="58"/>
-      <c r="DX23" s="126"/>
+      <c r="DX23" s="70"/>
       <c r="DY23" s="19"/>
     </row>
     <row r="24" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="84"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="127"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="57"/>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
@@ -9725,8 +9654,8 @@
       <c r="AG24" s="57"/>
       <c r="AH24" s="57"/>
       <c r="AI24" s="57"/>
-      <c r="AJ24" s="128"/>
-      <c r="AK24" s="127"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="71"/>
       <c r="AL24" s="57"/>
       <c r="AM24" s="57"/>
       <c r="AN24" s="57"/>
@@ -9756,8 +9685,8 @@
       <c r="BL24" s="57"/>
       <c r="BM24" s="57"/>
       <c r="BN24" s="57"/>
-      <c r="BO24" s="128"/>
-      <c r="BP24" s="127"/>
+      <c r="BO24" s="72"/>
+      <c r="BP24" s="71"/>
       <c r="BQ24" s="57"/>
       <c r="BR24" s="57"/>
       <c r="BS24" s="57"/>
@@ -9786,8 +9715,8 @@
       <c r="CP24" s="57"/>
       <c r="CQ24" s="57"/>
       <c r="CR24" s="57"/>
-      <c r="CS24" s="128"/>
-      <c r="CT24" s="127"/>
+      <c r="CS24" s="72"/>
+      <c r="CT24" s="71"/>
       <c r="CU24" s="57"/>
       <c r="CV24" s="57"/>
       <c r="CW24" s="57"/>
@@ -9817,30 +9746,30 @@
       <c r="DU24" s="57"/>
       <c r="DV24" s="57"/>
       <c r="DW24" s="57"/>
-      <c r="DX24" s="128"/>
+      <c r="DX24" s="72"/>
       <c r="DY24" s="19"/>
     </row>
     <row r="25" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="104">
+      <c r="E25" s="123">
         <f>SUM($G26:$DX26)</f>
         <v>20</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="130"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
@@ -9869,8 +9798,8 @@
       <c r="AG25" s="56"/>
       <c r="AH25" s="56"/>
       <c r="AI25" s="56"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="130"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="73"/>
       <c r="AL25" s="56"/>
       <c r="AM25" s="56"/>
       <c r="AN25" s="56"/>
@@ -9900,8 +9829,8 @@
       <c r="BL25" s="56"/>
       <c r="BM25" s="56"/>
       <c r="BN25" s="56"/>
-      <c r="BO25" s="131"/>
-      <c r="BP25" s="130"/>
+      <c r="BO25" s="74"/>
+      <c r="BP25" s="73"/>
       <c r="BQ25" s="56"/>
       <c r="BR25" s="56"/>
       <c r="BS25" s="56"/>
@@ -9930,8 +9859,8 @@
       <c r="CP25" s="56"/>
       <c r="CQ25" s="56"/>
       <c r="CR25" s="56"/>
-      <c r="CS25" s="131"/>
-      <c r="CT25" s="130"/>
+      <c r="CS25" s="74"/>
+      <c r="CT25" s="73"/>
       <c r="CU25" s="56"/>
       <c r="CV25" s="56"/>
       <c r="CW25" s="56"/>
@@ -9961,17 +9890,17 @@
       <c r="DU25" s="56"/>
       <c r="DV25" s="56"/>
       <c r="DW25" s="56"/>
-      <c r="DX25" s="131"/>
+      <c r="DX25" s="74"/>
       <c r="DY25" s="19"/>
     </row>
     <row r="26" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A26" s="84"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="125"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="69"/>
       <c r="H26" s="58"/>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -10010,8 +9939,8 @@
         <v>4</v>
       </c>
       <c r="AI26" s="58"/>
-      <c r="AJ26" s="126"/>
-      <c r="AK26" s="125"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="69"/>
       <c r="AL26" s="58"/>
       <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
@@ -10041,8 +9970,8 @@
       <c r="BL26" s="58"/>
       <c r="BM26" s="58"/>
       <c r="BN26" s="58"/>
-      <c r="BO26" s="126"/>
-      <c r="BP26" s="125"/>
+      <c r="BO26" s="70"/>
+      <c r="BP26" s="69"/>
       <c r="BQ26" s="58"/>
       <c r="BR26" s="58"/>
       <c r="BS26" s="58"/>
@@ -10071,8 +10000,8 @@
       <c r="CP26" s="58"/>
       <c r="CQ26" s="58"/>
       <c r="CR26" s="58"/>
-      <c r="CS26" s="126"/>
-      <c r="CT26" s="125"/>
+      <c r="CS26" s="70"/>
+      <c r="CT26" s="69"/>
       <c r="CU26" s="58"/>
       <c r="CV26" s="58"/>
       <c r="CW26" s="58"/>
@@ -10102,17 +10031,17 @@
       <c r="DU26" s="58"/>
       <c r="DV26" s="58"/>
       <c r="DW26" s="58"/>
-      <c r="DX26" s="126"/>
+      <c r="DX26" s="70"/>
       <c r="DY26" s="19"/>
     </row>
     <row r="27" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="127"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="57"/>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
@@ -10141,8 +10070,8 @@
       <c r="AG27" s="57"/>
       <c r="AH27" s="57"/>
       <c r="AI27" s="57"/>
-      <c r="AJ27" s="128"/>
-      <c r="AK27" s="127"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="71"/>
       <c r="AL27" s="57"/>
       <c r="AM27" s="57"/>
       <c r="AN27" s="57"/>
@@ -10172,8 +10101,8 @@
       <c r="BL27" s="57"/>
       <c r="BM27" s="57"/>
       <c r="BN27" s="57"/>
-      <c r="BO27" s="128"/>
-      <c r="BP27" s="127"/>
+      <c r="BO27" s="72"/>
+      <c r="BP27" s="71"/>
       <c r="BQ27" s="57"/>
       <c r="BR27" s="57"/>
       <c r="BS27" s="57"/>
@@ -10202,8 +10131,8 @@
       <c r="CP27" s="57"/>
       <c r="CQ27" s="57"/>
       <c r="CR27" s="57"/>
-      <c r="CS27" s="128"/>
-      <c r="CT27" s="127"/>
+      <c r="CS27" s="72"/>
+      <c r="CT27" s="71"/>
       <c r="CU27" s="57"/>
       <c r="CV27" s="57"/>
       <c r="CW27" s="57"/>
@@ -10233,28 +10162,30 @@
       <c r="DU27" s="57"/>
       <c r="DV27" s="57"/>
       <c r="DW27" s="57"/>
-      <c r="DX27" s="128"/>
+      <c r="DX27" s="72"/>
       <c r="DY27" s="19"/>
     </row>
     <row r="28" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="104">
+      <c r="D28" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="123">
         <f>SUM($G29:$DX29)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="130"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
@@ -10283,8 +10214,8 @@
       <c r="AG28" s="56"/>
       <c r="AH28" s="56"/>
       <c r="AI28" s="56"/>
-      <c r="AJ28" s="131"/>
-      <c r="AK28" s="130"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="73"/>
       <c r="AL28" s="56"/>
       <c r="AM28" s="56"/>
       <c r="AN28" s="56"/>
@@ -10314,8 +10245,8 @@
       <c r="BL28" s="56"/>
       <c r="BM28" s="56"/>
       <c r="BN28" s="56"/>
-      <c r="BO28" s="131"/>
-      <c r="BP28" s="130"/>
+      <c r="BO28" s="74"/>
+      <c r="BP28" s="73"/>
       <c r="BQ28" s="56"/>
       <c r="BR28" s="56"/>
       <c r="BS28" s="56"/>
@@ -10344,8 +10275,8 @@
       <c r="CP28" s="56"/>
       <c r="CQ28" s="56"/>
       <c r="CR28" s="56"/>
-      <c r="CS28" s="131"/>
-      <c r="CT28" s="130"/>
+      <c r="CS28" s="74"/>
+      <c r="CT28" s="73"/>
       <c r="CU28" s="56"/>
       <c r="CV28" s="56"/>
       <c r="CW28" s="56"/>
@@ -10375,17 +10306,17 @@
       <c r="DU28" s="56"/>
       <c r="DV28" s="56"/>
       <c r="DW28" s="56"/>
-      <c r="DX28" s="131"/>
+      <c r="DX28" s="74"/>
       <c r="DY28" s="19"/>
     </row>
     <row r="29" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="84"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="125"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="69"/>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
@@ -10410,12 +10341,14 @@
       <c r="AC29" s="58"/>
       <c r="AD29" s="58"/>
       <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
+      <c r="AF29" s="58">
+        <v>4</v>
+      </c>
       <c r="AG29" s="58"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="58"/>
-      <c r="AJ29" s="126"/>
-      <c r="AK29" s="125"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="69"/>
       <c r="AL29" s="58"/>
       <c r="AM29" s="58"/>
       <c r="AN29" s="58"/>
@@ -10445,8 +10378,8 @@
       <c r="BL29" s="58"/>
       <c r="BM29" s="58"/>
       <c r="BN29" s="58"/>
-      <c r="BO29" s="126"/>
-      <c r="BP29" s="125"/>
+      <c r="BO29" s="70"/>
+      <c r="BP29" s="69"/>
       <c r="BQ29" s="58"/>
       <c r="BR29" s="58"/>
       <c r="BS29" s="58"/>
@@ -10475,8 +10408,8 @@
       <c r="CP29" s="58"/>
       <c r="CQ29" s="58"/>
       <c r="CR29" s="58"/>
-      <c r="CS29" s="126"/>
-      <c r="CT29" s="125"/>
+      <c r="CS29" s="70"/>
+      <c r="CT29" s="69"/>
       <c r="CU29" s="58"/>
       <c r="CV29" s="58"/>
       <c r="CW29" s="58"/>
@@ -10506,17 +10439,17 @@
       <c r="DU29" s="58"/>
       <c r="DV29" s="58"/>
       <c r="DW29" s="58"/>
-      <c r="DX29" s="126"/>
+      <c r="DX29" s="70"/>
       <c r="DY29" s="19"/>
     </row>
     <row r="30" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="127"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="71"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
@@ -10545,8 +10478,8 @@
       <c r="AG30" s="57"/>
       <c r="AH30" s="57"/>
       <c r="AI30" s="57"/>
-      <c r="AJ30" s="128"/>
-      <c r="AK30" s="127"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="71"/>
       <c r="AL30" s="57"/>
       <c r="AM30" s="57"/>
       <c r="AN30" s="57"/>
@@ -10576,8 +10509,8 @@
       <c r="BL30" s="57"/>
       <c r="BM30" s="57"/>
       <c r="BN30" s="57"/>
-      <c r="BO30" s="128"/>
-      <c r="BP30" s="127"/>
+      <c r="BO30" s="72"/>
+      <c r="BP30" s="71"/>
       <c r="BQ30" s="57"/>
       <c r="BR30" s="57"/>
       <c r="BS30" s="57"/>
@@ -10606,8 +10539,8 @@
       <c r="CP30" s="57"/>
       <c r="CQ30" s="57"/>
       <c r="CR30" s="57"/>
-      <c r="CS30" s="128"/>
-      <c r="CT30" s="127"/>
+      <c r="CS30" s="72"/>
+      <c r="CT30" s="71"/>
       <c r="CU30" s="57"/>
       <c r="CV30" s="57"/>
       <c r="CW30" s="57"/>
@@ -10637,30 +10570,30 @@
       <c r="DU30" s="57"/>
       <c r="DV30" s="57"/>
       <c r="DW30" s="57"/>
-      <c r="DX30" s="128"/>
+      <c r="DX30" s="72"/>
       <c r="DY30" s="19"/>
     </row>
     <row r="31" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="134" t="s">
+      <c r="C31" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="123">
         <f>SUM($G32:$DX32)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="130"/>
+      <c r="G31" s="73"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
@@ -10689,8 +10622,8 @@
       <c r="AG31" s="56"/>
       <c r="AH31" s="56"/>
       <c r="AI31" s="56"/>
-      <c r="AJ31" s="131"/>
-      <c r="AK31" s="130"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="73"/>
       <c r="AL31" s="56"/>
       <c r="AM31" s="56"/>
       <c r="AN31" s="56"/>
@@ -10720,8 +10653,8 @@
       <c r="BL31" s="56"/>
       <c r="BM31" s="56"/>
       <c r="BN31" s="56"/>
-      <c r="BO31" s="131"/>
-      <c r="BP31" s="130"/>
+      <c r="BO31" s="74"/>
+      <c r="BP31" s="73"/>
       <c r="BQ31" s="56"/>
       <c r="BR31" s="56"/>
       <c r="BS31" s="56"/>
@@ -10750,8 +10683,8 @@
       <c r="CP31" s="56"/>
       <c r="CQ31" s="56"/>
       <c r="CR31" s="56"/>
-      <c r="CS31" s="131"/>
-      <c r="CT31" s="130"/>
+      <c r="CS31" s="74"/>
+      <c r="CT31" s="73"/>
       <c r="CU31" s="56"/>
       <c r="CV31" s="56"/>
       <c r="CW31" s="56"/>
@@ -10781,17 +10714,17 @@
       <c r="DU31" s="56"/>
       <c r="DV31" s="56"/>
       <c r="DW31" s="56"/>
-      <c r="DX31" s="131"/>
+      <c r="DX31" s="74"/>
       <c r="DY31" s="19"/>
     </row>
     <row r="32" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="125"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="58"/>
       <c r="I32" s="58"/>
       <c r="J32" s="58"/>
@@ -10820,8 +10753,8 @@
       <c r="AG32" s="58"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="58"/>
-      <c r="AJ32" s="126"/>
-      <c r="AK32" s="125"/>
+      <c r="AJ32" s="70"/>
+      <c r="AK32" s="69"/>
       <c r="AL32" s="58"/>
       <c r="AM32" s="58"/>
       <c r="AN32" s="58"/>
@@ -10851,8 +10784,8 @@
       <c r="BL32" s="58"/>
       <c r="BM32" s="58"/>
       <c r="BN32" s="58"/>
-      <c r="BO32" s="126"/>
-      <c r="BP32" s="125"/>
+      <c r="BO32" s="70"/>
+      <c r="BP32" s="69"/>
       <c r="BQ32" s="58"/>
       <c r="BR32" s="58"/>
       <c r="BS32" s="58"/>
@@ -10881,8 +10814,8 @@
       <c r="CP32" s="58"/>
       <c r="CQ32" s="58"/>
       <c r="CR32" s="58"/>
-      <c r="CS32" s="126"/>
-      <c r="CT32" s="125"/>
+      <c r="CS32" s="70"/>
+      <c r="CT32" s="69"/>
       <c r="CU32" s="58"/>
       <c r="CV32" s="58"/>
       <c r="CW32" s="58"/>
@@ -10912,17 +10845,17 @@
       <c r="DU32" s="58"/>
       <c r="DV32" s="58"/>
       <c r="DW32" s="58"/>
-      <c r="DX32" s="126"/>
+      <c r="DX32" s="70"/>
       <c r="DY32" s="19"/>
     </row>
     <row r="33" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="84"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="127"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
@@ -10951,8 +10884,8 @@
       <c r="AG33" s="57"/>
       <c r="AH33" s="57"/>
       <c r="AI33" s="57"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="127"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="71"/>
       <c r="AL33" s="57"/>
       <c r="AM33" s="57"/>
       <c r="AN33" s="57"/>
@@ -10982,8 +10915,8 @@
       <c r="BL33" s="57"/>
       <c r="BM33" s="57"/>
       <c r="BN33" s="57"/>
-      <c r="BO33" s="128"/>
-      <c r="BP33" s="127"/>
+      <c r="BO33" s="72"/>
+      <c r="BP33" s="71"/>
       <c r="BQ33" s="57"/>
       <c r="BR33" s="57"/>
       <c r="BS33" s="57"/>
@@ -11012,8 +10945,8 @@
       <c r="CP33" s="57"/>
       <c r="CQ33" s="57"/>
       <c r="CR33" s="57"/>
-      <c r="CS33" s="128"/>
-      <c r="CT33" s="127"/>
+      <c r="CS33" s="72"/>
+      <c r="CT33" s="71"/>
       <c r="CU33" s="57"/>
       <c r="CV33" s="57"/>
       <c r="CW33" s="57"/>
@@ -11043,30 +10976,30 @@
       <c r="DU33" s="57"/>
       <c r="DV33" s="57"/>
       <c r="DW33" s="57"/>
-      <c r="DX33" s="128"/>
+      <c r="DX33" s="72"/>
       <c r="DY33" s="19"/>
     </row>
     <row r="34" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="86" t="s">
+      <c r="B34" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="134" t="s">
+      <c r="C34" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="104">
+      <c r="E34" s="123">
         <f>SUM($G35:$DX35)</f>
         <v>12</v>
       </c>
-      <c r="F34" s="110" t="s">
+      <c r="F34" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
@@ -11095,8 +11028,8 @@
       <c r="AG34" s="56"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="56"/>
-      <c r="AJ34" s="131"/>
-      <c r="AK34" s="130"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="73"/>
       <c r="AL34" s="56"/>
       <c r="AM34" s="56"/>
       <c r="AN34" s="56"/>
@@ -11126,8 +11059,8 @@
       <c r="BL34" s="56"/>
       <c r="BM34" s="56"/>
       <c r="BN34" s="56"/>
-      <c r="BO34" s="131"/>
-      <c r="BP34" s="130"/>
+      <c r="BO34" s="74"/>
+      <c r="BP34" s="73"/>
       <c r="BQ34" s="56"/>
       <c r="BR34" s="56"/>
       <c r="BS34" s="56"/>
@@ -11156,8 +11089,8 @@
       <c r="CP34" s="56"/>
       <c r="CQ34" s="56"/>
       <c r="CR34" s="56"/>
-      <c r="CS34" s="131"/>
-      <c r="CT34" s="130"/>
+      <c r="CS34" s="74"/>
+      <c r="CT34" s="73"/>
       <c r="CU34" s="56"/>
       <c r="CV34" s="56"/>
       <c r="CW34" s="56"/>
@@ -11187,17 +11120,17 @@
       <c r="DU34" s="56"/>
       <c r="DV34" s="56"/>
       <c r="DW34" s="56"/>
-      <c r="DX34" s="131"/>
+      <c r="DX34" s="74"/>
       <c r="DY34" s="19"/>
     </row>
     <row r="35" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="125"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="69"/>
       <c r="H35" s="58"/>
       <c r="I35" s="58"/>
       <c r="J35" s="58"/>
@@ -11230,8 +11163,8 @@
       <c r="AG35" s="58"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="58"/>
-      <c r="AJ35" s="126"/>
-      <c r="AK35" s="125"/>
+      <c r="AJ35" s="70"/>
+      <c r="AK35" s="69"/>
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
       <c r="AN35" s="58"/>
@@ -11261,8 +11194,8 @@
       <c r="BL35" s="58"/>
       <c r="BM35" s="58"/>
       <c r="BN35" s="58"/>
-      <c r="BO35" s="126"/>
-      <c r="BP35" s="125"/>
+      <c r="BO35" s="70"/>
+      <c r="BP35" s="69"/>
       <c r="BQ35" s="58"/>
       <c r="BR35" s="58"/>
       <c r="BS35" s="58"/>
@@ -11291,8 +11224,8 @@
       <c r="CP35" s="58"/>
       <c r="CQ35" s="58"/>
       <c r="CR35" s="58"/>
-      <c r="CS35" s="126"/>
-      <c r="CT35" s="125"/>
+      <c r="CS35" s="70"/>
+      <c r="CT35" s="69"/>
       <c r="CU35" s="58"/>
       <c r="CV35" s="58"/>
       <c r="CW35" s="58"/>
@@ -11322,17 +11255,17 @@
       <c r="DU35" s="58"/>
       <c r="DV35" s="58"/>
       <c r="DW35" s="58"/>
-      <c r="DX35" s="126"/>
+      <c r="DX35" s="70"/>
       <c r="DY35" s="19"/>
     </row>
     <row r="36" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="84"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="127"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="57"/>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
@@ -11361,8 +11294,8 @@
       <c r="AG36" s="57"/>
       <c r="AH36" s="57"/>
       <c r="AI36" s="57"/>
-      <c r="AJ36" s="128"/>
-      <c r="AK36" s="127"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="71"/>
       <c r="AL36" s="57"/>
       <c r="AM36" s="57"/>
       <c r="AN36" s="57"/>
@@ -11392,8 +11325,8 @@
       <c r="BL36" s="57"/>
       <c r="BM36" s="57"/>
       <c r="BN36" s="57"/>
-      <c r="BO36" s="128"/>
-      <c r="BP36" s="127"/>
+      <c r="BO36" s="72"/>
+      <c r="BP36" s="71"/>
       <c r="BQ36" s="57"/>
       <c r="BR36" s="57"/>
       <c r="BS36" s="57"/>
@@ -11422,8 +11355,8 @@
       <c r="CP36" s="57"/>
       <c r="CQ36" s="57"/>
       <c r="CR36" s="57"/>
-      <c r="CS36" s="128"/>
-      <c r="CT36" s="127"/>
+      <c r="CS36" s="72"/>
+      <c r="CT36" s="71"/>
       <c r="CU36" s="57"/>
       <c r="CV36" s="57"/>
       <c r="CW36" s="57"/>
@@ -11453,30 +11386,30 @@
       <c r="DU36" s="57"/>
       <c r="DV36" s="57"/>
       <c r="DW36" s="57"/>
-      <c r="DX36" s="128"/>
+      <c r="DX36" s="72"/>
       <c r="DY36" s="19"/>
     </row>
     <row r="37" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="134" t="s">
+      <c r="C37" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="104">
+      <c r="E37" s="123">
         <f>SUM($G38:$DX38)</f>
         <v>12</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="130"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
@@ -11505,8 +11438,8 @@
       <c r="AG37" s="56"/>
       <c r="AH37" s="56"/>
       <c r="AI37" s="56"/>
-      <c r="AJ37" s="131"/>
-      <c r="AK37" s="130"/>
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="73"/>
       <c r="AL37" s="56"/>
       <c r="AM37" s="56"/>
       <c r="AN37" s="56"/>
@@ -11536,8 +11469,8 @@
       <c r="BL37" s="56"/>
       <c r="BM37" s="56"/>
       <c r="BN37" s="56"/>
-      <c r="BO37" s="131"/>
-      <c r="BP37" s="130"/>
+      <c r="BO37" s="74"/>
+      <c r="BP37" s="73"/>
       <c r="BQ37" s="56"/>
       <c r="BR37" s="56"/>
       <c r="BS37" s="56"/>
@@ -11566,8 +11499,8 @@
       <c r="CP37" s="56"/>
       <c r="CQ37" s="56"/>
       <c r="CR37" s="56"/>
-      <c r="CS37" s="131"/>
-      <c r="CT37" s="130"/>
+      <c r="CS37" s="74"/>
+      <c r="CT37" s="73"/>
       <c r="CU37" s="56"/>
       <c r="CV37" s="56"/>
       <c r="CW37" s="56"/>
@@ -11597,17 +11530,17 @@
       <c r="DU37" s="56"/>
       <c r="DV37" s="56"/>
       <c r="DW37" s="56"/>
-      <c r="DX37" s="131"/>
+      <c r="DX37" s="74"/>
       <c r="DY37" s="19"/>
     </row>
     <row r="38" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="125"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="58"/>
       <c r="I38" s="58"/>
       <c r="J38" s="58"/>
@@ -11640,8 +11573,8 @@
       <c r="AG38" s="58"/>
       <c r="AH38" s="58"/>
       <c r="AI38" s="58"/>
-      <c r="AJ38" s="126"/>
-      <c r="AK38" s="125"/>
+      <c r="AJ38" s="70"/>
+      <c r="AK38" s="69"/>
       <c r="AL38" s="58"/>
       <c r="AM38" s="58"/>
       <c r="AN38" s="58"/>
@@ -11671,8 +11604,8 @@
       <c r="BL38" s="58"/>
       <c r="BM38" s="58"/>
       <c r="BN38" s="58"/>
-      <c r="BO38" s="126"/>
-      <c r="BP38" s="125"/>
+      <c r="BO38" s="70"/>
+      <c r="BP38" s="69"/>
       <c r="BQ38" s="58"/>
       <c r="BR38" s="58"/>
       <c r="BS38" s="58"/>
@@ -11701,8 +11634,8 @@
       <c r="CP38" s="58"/>
       <c r="CQ38" s="58"/>
       <c r="CR38" s="58"/>
-      <c r="CS38" s="126"/>
-      <c r="CT38" s="125"/>
+      <c r="CS38" s="70"/>
+      <c r="CT38" s="69"/>
       <c r="CU38" s="58"/>
       <c r="CV38" s="58"/>
       <c r="CW38" s="58"/>
@@ -11732,17 +11665,17 @@
       <c r="DU38" s="58"/>
       <c r="DV38" s="58"/>
       <c r="DW38" s="58"/>
-      <c r="DX38" s="126"/>
+      <c r="DX38" s="70"/>
       <c r="DY38" s="19"/>
     </row>
     <row r="39" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="127"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="71"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
@@ -11771,8 +11704,8 @@
       <c r="AG39" s="57"/>
       <c r="AH39" s="57"/>
       <c r="AI39" s="57"/>
-      <c r="AJ39" s="128"/>
-      <c r="AK39" s="127"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="71"/>
       <c r="AL39" s="57"/>
       <c r="AM39" s="57"/>
       <c r="AN39" s="57"/>
@@ -11802,8 +11735,8 @@
       <c r="BL39" s="57"/>
       <c r="BM39" s="57"/>
       <c r="BN39" s="57"/>
-      <c r="BO39" s="128"/>
-      <c r="BP39" s="127"/>
+      <c r="BO39" s="72"/>
+      <c r="BP39" s="71"/>
       <c r="BQ39" s="57"/>
       <c r="BR39" s="57"/>
       <c r="BS39" s="57"/>
@@ -11832,8 +11765,8 @@
       <c r="CP39" s="57"/>
       <c r="CQ39" s="57"/>
       <c r="CR39" s="57"/>
-      <c r="CS39" s="128"/>
-      <c r="CT39" s="127"/>
+      <c r="CS39" s="72"/>
+      <c r="CT39" s="71"/>
       <c r="CU39" s="57"/>
       <c r="CV39" s="57"/>
       <c r="CW39" s="57"/>
@@ -11863,30 +11796,30 @@
       <c r="DU39" s="57"/>
       <c r="DV39" s="57"/>
       <c r="DW39" s="57"/>
-      <c r="DX39" s="128"/>
+      <c r="DX39" s="72"/>
       <c r="DY39" s="19"/>
     </row>
     <row r="40" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="104">
+      <c r="E40" s="123">
         <f>SUM($G41:$DX41)</f>
         <v>12</v>
       </c>
-      <c r="F40" s="110" t="s">
+      <c r="F40" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="130"/>
+      <c r="G40" s="73"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
       <c r="J40" s="56"/>
@@ -11915,8 +11848,8 @@
       <c r="AG40" s="56"/>
       <c r="AH40" s="56"/>
       <c r="AI40" s="56"/>
-      <c r="AJ40" s="131"/>
-      <c r="AK40" s="130"/>
+      <c r="AJ40" s="74"/>
+      <c r="AK40" s="73"/>
       <c r="AL40" s="56"/>
       <c r="AM40" s="56"/>
       <c r="AN40" s="56"/>
@@ -11946,8 +11879,8 @@
       <c r="BL40" s="56"/>
       <c r="BM40" s="56"/>
       <c r="BN40" s="56"/>
-      <c r="BO40" s="131"/>
-      <c r="BP40" s="130"/>
+      <c r="BO40" s="74"/>
+      <c r="BP40" s="73"/>
       <c r="BQ40" s="56"/>
       <c r="BR40" s="56"/>
       <c r="BS40" s="56"/>
@@ -11976,8 +11909,8 @@
       <c r="CP40" s="56"/>
       <c r="CQ40" s="56"/>
       <c r="CR40" s="56"/>
-      <c r="CS40" s="131"/>
-      <c r="CT40" s="130"/>
+      <c r="CS40" s="74"/>
+      <c r="CT40" s="73"/>
       <c r="CU40" s="56"/>
       <c r="CV40" s="56"/>
       <c r="CW40" s="56"/>
@@ -12007,17 +11940,17 @@
       <c r="DU40" s="56"/>
       <c r="DV40" s="56"/>
       <c r="DW40" s="56"/>
-      <c r="DX40" s="131"/>
+      <c r="DX40" s="74"/>
       <c r="DY40" s="19"/>
     </row>
     <row r="41" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="125"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="58"/>
@@ -12050,8 +11983,8 @@
       <c r="AG41" s="58"/>
       <c r="AH41" s="58"/>
       <c r="AI41" s="58"/>
-      <c r="AJ41" s="126"/>
-      <c r="AK41" s="125"/>
+      <c r="AJ41" s="70"/>
+      <c r="AK41" s="69"/>
       <c r="AL41" s="58"/>
       <c r="AM41" s="58"/>
       <c r="AN41" s="58"/>
@@ -12081,8 +12014,8 @@
       <c r="BL41" s="58"/>
       <c r="BM41" s="58"/>
       <c r="BN41" s="58"/>
-      <c r="BO41" s="126"/>
-      <c r="BP41" s="125"/>
+      <c r="BO41" s="70"/>
+      <c r="BP41" s="69"/>
       <c r="BQ41" s="58"/>
       <c r="BR41" s="58"/>
       <c r="BS41" s="58"/>
@@ -12111,8 +12044,8 @@
       <c r="CP41" s="58"/>
       <c r="CQ41" s="58"/>
       <c r="CR41" s="58"/>
-      <c r="CS41" s="126"/>
-      <c r="CT41" s="125"/>
+      <c r="CS41" s="70"/>
+      <c r="CT41" s="69"/>
       <c r="CU41" s="58"/>
       <c r="CV41" s="58"/>
       <c r="CW41" s="58"/>
@@ -12142,17 +12075,17 @@
       <c r="DU41" s="58"/>
       <c r="DV41" s="58"/>
       <c r="DW41" s="58"/>
-      <c r="DX41" s="126"/>
+      <c r="DX41" s="70"/>
       <c r="DY41" s="19"/>
     </row>
     <row r="42" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="127"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="71"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
@@ -12181,8 +12114,8 @@
       <c r="AG42" s="57"/>
       <c r="AH42" s="57"/>
       <c r="AI42" s="57"/>
-      <c r="AJ42" s="128"/>
-      <c r="AK42" s="127"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="71"/>
       <c r="AL42" s="57"/>
       <c r="AM42" s="57"/>
       <c r="AN42" s="57"/>
@@ -12212,8 +12145,8 @@
       <c r="BL42" s="57"/>
       <c r="BM42" s="57"/>
       <c r="BN42" s="57"/>
-      <c r="BO42" s="128"/>
-      <c r="BP42" s="127"/>
+      <c r="BO42" s="72"/>
+      <c r="BP42" s="71"/>
       <c r="BQ42" s="57"/>
       <c r="BR42" s="57"/>
       <c r="BS42" s="57"/>
@@ -12242,8 +12175,8 @@
       <c r="CP42" s="57"/>
       <c r="CQ42" s="57"/>
       <c r="CR42" s="57"/>
-      <c r="CS42" s="128"/>
-      <c r="CT42" s="127"/>
+      <c r="CS42" s="72"/>
+      <c r="CT42" s="71"/>
       <c r="CU42" s="57"/>
       <c r="CV42" s="57"/>
       <c r="CW42" s="57"/>
@@ -12273,30 +12206,30 @@
       <c r="DU42" s="57"/>
       <c r="DV42" s="57"/>
       <c r="DW42" s="57"/>
-      <c r="DX42" s="128"/>
+      <c r="DX42" s="72"/>
       <c r="DY42" s="19"/>
     </row>
     <row r="43" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="104">
+      <c r="E43" s="123">
         <f>SUM($G44:$DX44)</f>
         <v>12</v>
       </c>
-      <c r="F43" s="110" t="s">
+      <c r="F43" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="130"/>
+      <c r="G43" s="73"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
       <c r="J43" s="56"/>
@@ -12325,8 +12258,8 @@
       <c r="AG43" s="56"/>
       <c r="AH43" s="56"/>
       <c r="AI43" s="56"/>
-      <c r="AJ43" s="131"/>
-      <c r="AK43" s="130"/>
+      <c r="AJ43" s="74"/>
+      <c r="AK43" s="73"/>
       <c r="AL43" s="56"/>
       <c r="AM43" s="56"/>
       <c r="AN43" s="56"/>
@@ -12356,8 +12289,8 @@
       <c r="BL43" s="56"/>
       <c r="BM43" s="56"/>
       <c r="BN43" s="56"/>
-      <c r="BO43" s="131"/>
-      <c r="BP43" s="130"/>
+      <c r="BO43" s="74"/>
+      <c r="BP43" s="73"/>
       <c r="BQ43" s="56"/>
       <c r="BR43" s="56"/>
       <c r="BS43" s="56"/>
@@ -12386,8 +12319,8 @@
       <c r="CP43" s="56"/>
       <c r="CQ43" s="56"/>
       <c r="CR43" s="56"/>
-      <c r="CS43" s="131"/>
-      <c r="CT43" s="130"/>
+      <c r="CS43" s="74"/>
+      <c r="CT43" s="73"/>
       <c r="CU43" s="56"/>
       <c r="CV43" s="56"/>
       <c r="CW43" s="56"/>
@@ -12417,17 +12350,17 @@
       <c r="DU43" s="56"/>
       <c r="DV43" s="56"/>
       <c r="DW43" s="56"/>
-      <c r="DX43" s="131"/>
+      <c r="DX43" s="74"/>
       <c r="DY43" s="19"/>
     </row>
     <row r="44" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="125"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="58"/>
       <c r="I44" s="58"/>
       <c r="J44" s="58"/>
@@ -12460,8 +12393,8 @@
       <c r="AG44" s="58"/>
       <c r="AH44" s="58"/>
       <c r="AI44" s="58"/>
-      <c r="AJ44" s="126"/>
-      <c r="AK44" s="125"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="69"/>
       <c r="AL44" s="58"/>
       <c r="AM44" s="58"/>
       <c r="AN44" s="58"/>
@@ -12491,8 +12424,8 @@
       <c r="BL44" s="58"/>
       <c r="BM44" s="58"/>
       <c r="BN44" s="58"/>
-      <c r="BO44" s="126"/>
-      <c r="BP44" s="125"/>
+      <c r="BO44" s="70"/>
+      <c r="BP44" s="69"/>
       <c r="BQ44" s="58"/>
       <c r="BR44" s="58"/>
       <c r="BS44" s="58"/>
@@ -12521,8 +12454,8 @@
       <c r="CP44" s="58"/>
       <c r="CQ44" s="58"/>
       <c r="CR44" s="58"/>
-      <c r="CS44" s="126"/>
-      <c r="CT44" s="125"/>
+      <c r="CS44" s="70"/>
+      <c r="CT44" s="69"/>
       <c r="CU44" s="58"/>
       <c r="CV44" s="58"/>
       <c r="CW44" s="58"/>
@@ -12552,17 +12485,17 @@
       <c r="DU44" s="58"/>
       <c r="DV44" s="58"/>
       <c r="DW44" s="58"/>
-      <c r="DX44" s="126"/>
+      <c r="DX44" s="70"/>
       <c r="DY44" s="19"/>
     </row>
     <row r="45" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="127"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
       <c r="J45" s="57"/>
@@ -12591,8 +12524,8 @@
       <c r="AG45" s="57"/>
       <c r="AH45" s="57"/>
       <c r="AI45" s="57"/>
-      <c r="AJ45" s="128"/>
-      <c r="AK45" s="127"/>
+      <c r="AJ45" s="72"/>
+      <c r="AK45" s="71"/>
       <c r="AL45" s="57"/>
       <c r="AM45" s="57"/>
       <c r="AN45" s="57"/>
@@ -12622,8 +12555,8 @@
       <c r="BL45" s="57"/>
       <c r="BM45" s="57"/>
       <c r="BN45" s="57"/>
-      <c r="BO45" s="128"/>
-      <c r="BP45" s="127"/>
+      <c r="BO45" s="72"/>
+      <c r="BP45" s="71"/>
       <c r="BQ45" s="57"/>
       <c r="BR45" s="57"/>
       <c r="BS45" s="57"/>
@@ -12652,8 +12585,8 @@
       <c r="CP45" s="57"/>
       <c r="CQ45" s="57"/>
       <c r="CR45" s="57"/>
-      <c r="CS45" s="128"/>
-      <c r="CT45" s="127"/>
+      <c r="CS45" s="72"/>
+      <c r="CT45" s="71"/>
       <c r="CU45" s="57"/>
       <c r="CV45" s="57"/>
       <c r="CW45" s="57"/>
@@ -12683,30 +12616,30 @@
       <c r="DU45" s="57"/>
       <c r="DV45" s="57"/>
       <c r="DW45" s="57"/>
-      <c r="DX45" s="128"/>
+      <c r="DX45" s="72"/>
       <c r="DY45" s="19"/>
     </row>
     <row r="46" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="104">
+      <c r="E46" s="123">
         <f>SUM($G47:$DX47)</f>
         <v>12</v>
       </c>
-      <c r="F46" s="110" t="s">
+      <c r="F46" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="130"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
       <c r="J46" s="56"/>
@@ -12735,8 +12668,8 @@
       <c r="AG46" s="56"/>
       <c r="AH46" s="56"/>
       <c r="AI46" s="56"/>
-      <c r="AJ46" s="131"/>
-      <c r="AK46" s="130"/>
+      <c r="AJ46" s="74"/>
+      <c r="AK46" s="73"/>
       <c r="AL46" s="56"/>
       <c r="AM46" s="56"/>
       <c r="AN46" s="56"/>
@@ -12766,8 +12699,8 @@
       <c r="BL46" s="56"/>
       <c r="BM46" s="56"/>
       <c r="BN46" s="56"/>
-      <c r="BO46" s="131"/>
-      <c r="BP46" s="130"/>
+      <c r="BO46" s="74"/>
+      <c r="BP46" s="73"/>
       <c r="BQ46" s="56"/>
       <c r="BR46" s="56"/>
       <c r="BS46" s="56"/>
@@ -12796,8 +12729,8 @@
       <c r="CP46" s="56"/>
       <c r="CQ46" s="56"/>
       <c r="CR46" s="56"/>
-      <c r="CS46" s="131"/>
-      <c r="CT46" s="130"/>
+      <c r="CS46" s="74"/>
+      <c r="CT46" s="73"/>
       <c r="CU46" s="56"/>
       <c r="CV46" s="56"/>
       <c r="CW46" s="56"/>
@@ -12827,17 +12760,17 @@
       <c r="DU46" s="56"/>
       <c r="DV46" s="56"/>
       <c r="DW46" s="56"/>
-      <c r="DX46" s="131"/>
+      <c r="DX46" s="74"/>
       <c r="DY46" s="19"/>
     </row>
     <row r="47" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="84"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="125"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="69"/>
       <c r="H47" s="58"/>
       <c r="I47" s="58"/>
       <c r="J47" s="58"/>
@@ -12870,8 +12803,8 @@
       <c r="AG47" s="58"/>
       <c r="AH47" s="58"/>
       <c r="AI47" s="58"/>
-      <c r="AJ47" s="126"/>
-      <c r="AK47" s="125"/>
+      <c r="AJ47" s="70"/>
+      <c r="AK47" s="69"/>
       <c r="AL47" s="58"/>
       <c r="AM47" s="58"/>
       <c r="AN47" s="58"/>
@@ -12901,8 +12834,8 @@
       <c r="BL47" s="58"/>
       <c r="BM47" s="58"/>
       <c r="BN47" s="58"/>
-      <c r="BO47" s="126"/>
-      <c r="BP47" s="125"/>
+      <c r="BO47" s="70"/>
+      <c r="BP47" s="69"/>
       <c r="BQ47" s="58"/>
       <c r="BR47" s="58"/>
       <c r="BS47" s="58"/>
@@ -12931,8 +12864,8 @@
       <c r="CP47" s="58"/>
       <c r="CQ47" s="58"/>
       <c r="CR47" s="58"/>
-      <c r="CS47" s="126"/>
-      <c r="CT47" s="125"/>
+      <c r="CS47" s="70"/>
+      <c r="CT47" s="69"/>
       <c r="CU47" s="58"/>
       <c r="CV47" s="58"/>
       <c r="CW47" s="58"/>
@@ -12962,17 +12895,17 @@
       <c r="DU47" s="58"/>
       <c r="DV47" s="58"/>
       <c r="DW47" s="58"/>
-      <c r="DX47" s="126"/>
+      <c r="DX47" s="70"/>
       <c r="DY47" s="19"/>
     </row>
     <row r="48" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="127"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="71"/>
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
@@ -13001,8 +12934,8 @@
       <c r="AG48" s="57"/>
       <c r="AH48" s="57"/>
       <c r="AI48" s="57"/>
-      <c r="AJ48" s="128"/>
-      <c r="AK48" s="127"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="71"/>
       <c r="AL48" s="57"/>
       <c r="AM48" s="57"/>
       <c r="AN48" s="57"/>
@@ -13032,8 +12965,8 @@
       <c r="BL48" s="57"/>
       <c r="BM48" s="57"/>
       <c r="BN48" s="57"/>
-      <c r="BO48" s="128"/>
-      <c r="BP48" s="127"/>
+      <c r="BO48" s="72"/>
+      <c r="BP48" s="71"/>
       <c r="BQ48" s="57"/>
       <c r="BR48" s="57"/>
       <c r="BS48" s="57"/>
@@ -13062,8 +12995,8 @@
       <c r="CP48" s="57"/>
       <c r="CQ48" s="57"/>
       <c r="CR48" s="57"/>
-      <c r="CS48" s="128"/>
-      <c r="CT48" s="127"/>
+      <c r="CS48" s="72"/>
+      <c r="CT48" s="71"/>
       <c r="CU48" s="57"/>
       <c r="CV48" s="57"/>
       <c r="CW48" s="57"/>
@@ -13093,30 +13026,30 @@
       <c r="DU48" s="57"/>
       <c r="DV48" s="57"/>
       <c r="DW48" s="57"/>
-      <c r="DX48" s="128"/>
+      <c r="DX48" s="72"/>
       <c r="DY48" s="19"/>
     </row>
     <row r="49" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="86" t="s">
+      <c r="B49" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="134" t="s">
+      <c r="C49" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="104">
+      <c r="E49" s="123">
         <f>SUM($G50:$DX50)</f>
         <v>12</v>
       </c>
-      <c r="F49" s="110" t="s">
+      <c r="F49" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="130"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
       <c r="J49" s="56"/>
@@ -13145,8 +13078,8 @@
       <c r="AG49" s="56"/>
       <c r="AH49" s="56"/>
       <c r="AI49" s="56"/>
-      <c r="AJ49" s="131"/>
-      <c r="AK49" s="130"/>
+      <c r="AJ49" s="74"/>
+      <c r="AK49" s="73"/>
       <c r="AL49" s="56"/>
       <c r="AM49" s="56"/>
       <c r="AN49" s="56"/>
@@ -13176,8 +13109,8 @@
       <c r="BL49" s="56"/>
       <c r="BM49" s="56"/>
       <c r="BN49" s="56"/>
-      <c r="BO49" s="131"/>
-      <c r="BP49" s="130"/>
+      <c r="BO49" s="74"/>
+      <c r="BP49" s="73"/>
       <c r="BQ49" s="56"/>
       <c r="BR49" s="56"/>
       <c r="BS49" s="56"/>
@@ -13206,8 +13139,8 @@
       <c r="CP49" s="56"/>
       <c r="CQ49" s="56"/>
       <c r="CR49" s="56"/>
-      <c r="CS49" s="131"/>
-      <c r="CT49" s="130"/>
+      <c r="CS49" s="74"/>
+      <c r="CT49" s="73"/>
       <c r="CU49" s="56"/>
       <c r="CV49" s="56"/>
       <c r="CW49" s="56"/>
@@ -13237,17 +13170,17 @@
       <c r="DU49" s="56"/>
       <c r="DV49" s="56"/>
       <c r="DW49" s="56"/>
-      <c r="DX49" s="131"/>
+      <c r="DX49" s="74"/>
       <c r="DY49" s="19"/>
     </row>
     <row r="50" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="125"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="58"/>
       <c r="I50" s="58"/>
       <c r="J50" s="58"/>
@@ -13280,8 +13213,8 @@
       <c r="AG50" s="58"/>
       <c r="AH50" s="58"/>
       <c r="AI50" s="58"/>
-      <c r="AJ50" s="126"/>
-      <c r="AK50" s="125"/>
+      <c r="AJ50" s="70"/>
+      <c r="AK50" s="69"/>
       <c r="AL50" s="58"/>
       <c r="AM50" s="58"/>
       <c r="AN50" s="58"/>
@@ -13311,8 +13244,8 @@
       <c r="BL50" s="58"/>
       <c r="BM50" s="58"/>
       <c r="BN50" s="58"/>
-      <c r="BO50" s="126"/>
-      <c r="BP50" s="125"/>
+      <c r="BO50" s="70"/>
+      <c r="BP50" s="69"/>
       <c r="BQ50" s="58"/>
       <c r="BR50" s="58"/>
       <c r="BS50" s="58"/>
@@ -13341,8 +13274,8 @@
       <c r="CP50" s="58"/>
       <c r="CQ50" s="58"/>
       <c r="CR50" s="58"/>
-      <c r="CS50" s="126"/>
-      <c r="CT50" s="125"/>
+      <c r="CS50" s="70"/>
+      <c r="CT50" s="69"/>
       <c r="CU50" s="58"/>
       <c r="CV50" s="58"/>
       <c r="CW50" s="58"/>
@@ -13372,17 +13305,17 @@
       <c r="DU50" s="58"/>
       <c r="DV50" s="58"/>
       <c r="DW50" s="58"/>
-      <c r="DX50" s="126"/>
+      <c r="DX50" s="70"/>
       <c r="DY50" s="19"/>
     </row>
     <row r="51" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="127"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="71"/>
       <c r="H51" s="57"/>
       <c r="I51" s="57"/>
       <c r="J51" s="57"/>
@@ -13411,8 +13344,8 @@
       <c r="AG51" s="57"/>
       <c r="AH51" s="57"/>
       <c r="AI51" s="57"/>
-      <c r="AJ51" s="128"/>
-      <c r="AK51" s="127"/>
+      <c r="AJ51" s="72"/>
+      <c r="AK51" s="71"/>
       <c r="AL51" s="57"/>
       <c r="AM51" s="57"/>
       <c r="AN51" s="57"/>
@@ -13442,8 +13375,8 @@
       <c r="BL51" s="57"/>
       <c r="BM51" s="57"/>
       <c r="BN51" s="57"/>
-      <c r="BO51" s="128"/>
-      <c r="BP51" s="127"/>
+      <c r="BO51" s="72"/>
+      <c r="BP51" s="71"/>
       <c r="BQ51" s="57"/>
       <c r="BR51" s="57"/>
       <c r="BS51" s="57"/>
@@ -13472,8 +13405,8 @@
       <c r="CP51" s="57"/>
       <c r="CQ51" s="57"/>
       <c r="CR51" s="57"/>
-      <c r="CS51" s="128"/>
-      <c r="CT51" s="127"/>
+      <c r="CS51" s="72"/>
+      <c r="CT51" s="71"/>
       <c r="CU51" s="57"/>
       <c r="CV51" s="57"/>
       <c r="CW51" s="57"/>
@@ -13503,30 +13436,30 @@
       <c r="DU51" s="57"/>
       <c r="DV51" s="57"/>
       <c r="DW51" s="57"/>
-      <c r="DX51" s="128"/>
+      <c r="DX51" s="72"/>
       <c r="DY51" s="19"/>
     </row>
     <row r="52" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="134" t="s">
+      <c r="C52" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="110" t="s">
+      <c r="D52" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="104">
+      <c r="E52" s="123">
         <f>SUM($G53:$DX53)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="110" t="s">
+      <c r="F52" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G52" s="130"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
       <c r="J52" s="56"/>
@@ -13555,8 +13488,8 @@
       <c r="AG52" s="56"/>
       <c r="AH52" s="56"/>
       <c r="AI52" s="56"/>
-      <c r="AJ52" s="131"/>
-      <c r="AK52" s="130"/>
+      <c r="AJ52" s="74"/>
+      <c r="AK52" s="73"/>
       <c r="AL52" s="56"/>
       <c r="AM52" s="56"/>
       <c r="AN52" s="56"/>
@@ -13586,8 +13519,8 @@
       <c r="BL52" s="56"/>
       <c r="BM52" s="56"/>
       <c r="BN52" s="56"/>
-      <c r="BO52" s="131"/>
-      <c r="BP52" s="130"/>
+      <c r="BO52" s="74"/>
+      <c r="BP52" s="73"/>
       <c r="BQ52" s="56"/>
       <c r="BR52" s="56"/>
       <c r="BS52" s="56"/>
@@ -13616,8 +13549,8 @@
       <c r="CP52" s="56"/>
       <c r="CQ52" s="56"/>
       <c r="CR52" s="56"/>
-      <c r="CS52" s="131"/>
-      <c r="CT52" s="130"/>
+      <c r="CS52" s="74"/>
+      <c r="CT52" s="73"/>
       <c r="CU52" s="56"/>
       <c r="CV52" s="56"/>
       <c r="CW52" s="56"/>
@@ -13647,17 +13580,17 @@
       <c r="DU52" s="56"/>
       <c r="DV52" s="56"/>
       <c r="DW52" s="56"/>
-      <c r="DX52" s="131"/>
+      <c r="DX52" s="74"/>
       <c r="DY52" s="19"/>
     </row>
     <row r="53" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="125"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="58"/>
       <c r="I53" s="58"/>
       <c r="J53" s="58"/>
@@ -13686,8 +13619,8 @@
       <c r="AG53" s="58"/>
       <c r="AH53" s="58"/>
       <c r="AI53" s="58"/>
-      <c r="AJ53" s="126"/>
-      <c r="AK53" s="125"/>
+      <c r="AJ53" s="70"/>
+      <c r="AK53" s="69"/>
       <c r="AL53" s="58"/>
       <c r="AM53" s="58"/>
       <c r="AN53" s="58"/>
@@ -13717,8 +13650,8 @@
       <c r="BL53" s="58"/>
       <c r="BM53" s="58"/>
       <c r="BN53" s="58"/>
-      <c r="BO53" s="126"/>
-      <c r="BP53" s="125"/>
+      <c r="BO53" s="70"/>
+      <c r="BP53" s="69"/>
       <c r="BQ53" s="58"/>
       <c r="BR53" s="58"/>
       <c r="BS53" s="58"/>
@@ -13747,8 +13680,8 @@
       <c r="CP53" s="58"/>
       <c r="CQ53" s="58"/>
       <c r="CR53" s="58"/>
-      <c r="CS53" s="126"/>
-      <c r="CT53" s="125"/>
+      <c r="CS53" s="70"/>
+      <c r="CT53" s="69"/>
       <c r="CU53" s="58"/>
       <c r="CV53" s="58"/>
       <c r="CW53" s="58"/>
@@ -13778,17 +13711,17 @@
       <c r="DU53" s="58"/>
       <c r="DV53" s="58"/>
       <c r="DW53" s="58"/>
-      <c r="DX53" s="126"/>
+      <c r="DX53" s="70"/>
       <c r="DY53" s="19"/>
     </row>
     <row r="54" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A54" s="84"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="127"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="71"/>
       <c r="H54" s="57"/>
       <c r="I54" s="57"/>
       <c r="J54" s="57"/>
@@ -13817,8 +13750,8 @@
       <c r="AG54" s="57"/>
       <c r="AH54" s="57"/>
       <c r="AI54" s="57"/>
-      <c r="AJ54" s="128"/>
-      <c r="AK54" s="127"/>
+      <c r="AJ54" s="72"/>
+      <c r="AK54" s="71"/>
       <c r="AL54" s="57"/>
       <c r="AM54" s="57"/>
       <c r="AN54" s="57"/>
@@ -13848,8 +13781,8 @@
       <c r="BL54" s="57"/>
       <c r="BM54" s="57"/>
       <c r="BN54" s="57"/>
-      <c r="BO54" s="128"/>
-      <c r="BP54" s="127"/>
+      <c r="BO54" s="72"/>
+      <c r="BP54" s="71"/>
       <c r="BQ54" s="57"/>
       <c r="BR54" s="57"/>
       <c r="BS54" s="57"/>
@@ -13878,8 +13811,8 @@
       <c r="CP54" s="57"/>
       <c r="CQ54" s="57"/>
       <c r="CR54" s="57"/>
-      <c r="CS54" s="128"/>
-      <c r="CT54" s="127"/>
+      <c r="CS54" s="72"/>
+      <c r="CT54" s="71"/>
       <c r="CU54" s="57"/>
       <c r="CV54" s="57"/>
       <c r="CW54" s="57"/>
@@ -13909,30 +13842,30 @@
       <c r="DU54" s="57"/>
       <c r="DV54" s="57"/>
       <c r="DW54" s="57"/>
-      <c r="DX54" s="128"/>
+      <c r="DX54" s="72"/>
       <c r="DY54" s="19"/>
     </row>
     <row r="55" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="134" t="s">
+      <c r="C55" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="110" t="s">
+      <c r="D55" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="104">
+      <c r="E55" s="123">
         <f>SUM($G56:$DX56)</f>
         <v>4</v>
       </c>
-      <c r="F55" s="110" t="s">
+      <c r="F55" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="130"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="56"/>
       <c r="I55" s="56"/>
       <c r="J55" s="56"/>
@@ -13961,8 +13894,8 @@
       <c r="AG55" s="56"/>
       <c r="AH55" s="56"/>
       <c r="AI55" s="56"/>
-      <c r="AJ55" s="131"/>
-      <c r="AK55" s="130"/>
+      <c r="AJ55" s="74"/>
+      <c r="AK55" s="73"/>
       <c r="AL55" s="56"/>
       <c r="AM55" s="56"/>
       <c r="AN55" s="56"/>
@@ -13992,8 +13925,8 @@
       <c r="BL55" s="56"/>
       <c r="BM55" s="56"/>
       <c r="BN55" s="56"/>
-      <c r="BO55" s="131"/>
-      <c r="BP55" s="130"/>
+      <c r="BO55" s="74"/>
+      <c r="BP55" s="73"/>
       <c r="BQ55" s="56"/>
       <c r="BR55" s="56"/>
       <c r="BS55" s="56"/>
@@ -14022,8 +13955,8 @@
       <c r="CP55" s="56"/>
       <c r="CQ55" s="56"/>
       <c r="CR55" s="56"/>
-      <c r="CS55" s="131"/>
-      <c r="CT55" s="130"/>
+      <c r="CS55" s="74"/>
+      <c r="CT55" s="73"/>
       <c r="CU55" s="56"/>
       <c r="CV55" s="56"/>
       <c r="CW55" s="56"/>
@@ -14053,17 +13986,17 @@
       <c r="DU55" s="56"/>
       <c r="DV55" s="56"/>
       <c r="DW55" s="56"/>
-      <c r="DX55" s="131"/>
+      <c r="DX55" s="74"/>
       <c r="DY55" s="19"/>
     </row>
     <row r="56" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A56" s="84"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="125"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="58"/>
       <c r="I56" s="58"/>
       <c r="J56" s="58"/>
@@ -14094,8 +14027,8 @@
       <c r="AG56" s="58"/>
       <c r="AH56" s="58"/>
       <c r="AI56" s="58"/>
-      <c r="AJ56" s="126"/>
-      <c r="AK56" s="125"/>
+      <c r="AJ56" s="70"/>
+      <c r="AK56" s="69"/>
       <c r="AL56" s="58"/>
       <c r="AM56" s="58"/>
       <c r="AN56" s="58"/>
@@ -14125,8 +14058,8 @@
       <c r="BL56" s="58"/>
       <c r="BM56" s="58"/>
       <c r="BN56" s="58"/>
-      <c r="BO56" s="126"/>
-      <c r="BP56" s="125"/>
+      <c r="BO56" s="70"/>
+      <c r="BP56" s="69"/>
       <c r="BQ56" s="58"/>
       <c r="BR56" s="58"/>
       <c r="BS56" s="58"/>
@@ -14155,8 +14088,8 @@
       <c r="CP56" s="58"/>
       <c r="CQ56" s="58"/>
       <c r="CR56" s="58"/>
-      <c r="CS56" s="126"/>
-      <c r="CT56" s="125"/>
+      <c r="CS56" s="70"/>
+      <c r="CT56" s="69"/>
       <c r="CU56" s="58"/>
       <c r="CV56" s="58"/>
       <c r="CW56" s="58"/>
@@ -14186,17 +14119,17 @@
       <c r="DU56" s="58"/>
       <c r="DV56" s="58"/>
       <c r="DW56" s="58"/>
-      <c r="DX56" s="126"/>
+      <c r="DX56" s="70"/>
       <c r="DY56" s="19"/>
     </row>
     <row r="57" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A57" s="84"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="127"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="57"/>
       <c r="I57" s="57"/>
       <c r="J57" s="57"/>
@@ -14225,8 +14158,8 @@
       <c r="AG57" s="57"/>
       <c r="AH57" s="57"/>
       <c r="AI57" s="57"/>
-      <c r="AJ57" s="128"/>
-      <c r="AK57" s="127"/>
+      <c r="AJ57" s="72"/>
+      <c r="AK57" s="71"/>
       <c r="AL57" s="57"/>
       <c r="AM57" s="57"/>
       <c r="AN57" s="57"/>
@@ -14256,8 +14189,8 @@
       <c r="BL57" s="57"/>
       <c r="BM57" s="57"/>
       <c r="BN57" s="57"/>
-      <c r="BO57" s="128"/>
-      <c r="BP57" s="127"/>
+      <c r="BO57" s="72"/>
+      <c r="BP57" s="71"/>
       <c r="BQ57" s="57"/>
       <c r="BR57" s="57"/>
       <c r="BS57" s="57"/>
@@ -14286,8 +14219,8 @@
       <c r="CP57" s="57"/>
       <c r="CQ57" s="57"/>
       <c r="CR57" s="57"/>
-      <c r="CS57" s="128"/>
-      <c r="CT57" s="127"/>
+      <c r="CS57" s="72"/>
+      <c r="CT57" s="71"/>
       <c r="CU57" s="57"/>
       <c r="CV57" s="57"/>
       <c r="CW57" s="57"/>
@@ -14317,30 +14250,30 @@
       <c r="DU57" s="57"/>
       <c r="DV57" s="57"/>
       <c r="DW57" s="57"/>
-      <c r="DX57" s="128"/>
+      <c r="DX57" s="72"/>
       <c r="DY57" s="19"/>
     </row>
     <row r="58" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="86" t="s">
+      <c r="B58" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="134" t="s">
+      <c r="C58" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="D58" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="104">
+      <c r="E58" s="123">
         <f>SUM($G59:$DX59)</f>
         <v>4</v>
       </c>
-      <c r="F58" s="110" t="s">
+      <c r="F58" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="130"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="56"/>
       <c r="I58" s="56"/>
       <c r="J58" s="56"/>
@@ -14369,8 +14302,8 @@
       <c r="AG58" s="56"/>
       <c r="AH58" s="56"/>
       <c r="AI58" s="56"/>
-      <c r="AJ58" s="131"/>
-      <c r="AK58" s="130"/>
+      <c r="AJ58" s="74"/>
+      <c r="AK58" s="73"/>
       <c r="AL58" s="56"/>
       <c r="AM58" s="56"/>
       <c r="AN58" s="56"/>
@@ -14400,8 +14333,8 @@
       <c r="BL58" s="56"/>
       <c r="BM58" s="56"/>
       <c r="BN58" s="56"/>
-      <c r="BO58" s="131"/>
-      <c r="BP58" s="130"/>
+      <c r="BO58" s="74"/>
+      <c r="BP58" s="73"/>
       <c r="BQ58" s="56"/>
       <c r="BR58" s="56"/>
       <c r="BS58" s="56"/>
@@ -14430,8 +14363,8 @@
       <c r="CP58" s="56"/>
       <c r="CQ58" s="56"/>
       <c r="CR58" s="56"/>
-      <c r="CS58" s="131"/>
-      <c r="CT58" s="130"/>
+      <c r="CS58" s="74"/>
+      <c r="CT58" s="73"/>
       <c r="CU58" s="56"/>
       <c r="CV58" s="56"/>
       <c r="CW58" s="56"/>
@@ -14461,17 +14394,17 @@
       <c r="DU58" s="56"/>
       <c r="DV58" s="56"/>
       <c r="DW58" s="56"/>
-      <c r="DX58" s="131"/>
+      <c r="DX58" s="74"/>
       <c r="DY58" s="19"/>
     </row>
     <row r="59" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A59" s="84"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="125"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="58"/>
       <c r="I59" s="58"/>
       <c r="J59" s="58"/>
@@ -14502,8 +14435,8 @@
       <c r="AG59" s="58"/>
       <c r="AH59" s="58"/>
       <c r="AI59" s="58"/>
-      <c r="AJ59" s="126"/>
-      <c r="AK59" s="125"/>
+      <c r="AJ59" s="70"/>
+      <c r="AK59" s="69"/>
       <c r="AL59" s="58"/>
       <c r="AM59" s="58"/>
       <c r="AN59" s="58"/>
@@ -14533,8 +14466,8 @@
       <c r="BL59" s="58"/>
       <c r="BM59" s="58"/>
       <c r="BN59" s="58"/>
-      <c r="BO59" s="126"/>
-      <c r="BP59" s="125"/>
+      <c r="BO59" s="70"/>
+      <c r="BP59" s="69"/>
       <c r="BQ59" s="58"/>
       <c r="BR59" s="58"/>
       <c r="BS59" s="58"/>
@@ -14563,8 +14496,8 @@
       <c r="CP59" s="58"/>
       <c r="CQ59" s="58"/>
       <c r="CR59" s="58"/>
-      <c r="CS59" s="126"/>
-      <c r="CT59" s="125"/>
+      <c r="CS59" s="70"/>
+      <c r="CT59" s="69"/>
       <c r="CU59" s="58"/>
       <c r="CV59" s="58"/>
       <c r="CW59" s="58"/>
@@ -14594,17 +14527,17 @@
       <c r="DU59" s="58"/>
       <c r="DV59" s="58"/>
       <c r="DW59" s="58"/>
-      <c r="DX59" s="126"/>
+      <c r="DX59" s="70"/>
       <c r="DY59" s="19"/>
     </row>
     <row r="60" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A60" s="84"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="127"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="71"/>
       <c r="H60" s="57"/>
       <c r="I60" s="57"/>
       <c r="J60" s="57"/>
@@ -14633,8 +14566,8 @@
       <c r="AG60" s="57"/>
       <c r="AH60" s="57"/>
       <c r="AI60" s="57"/>
-      <c r="AJ60" s="128"/>
-      <c r="AK60" s="127"/>
+      <c r="AJ60" s="72"/>
+      <c r="AK60" s="71"/>
       <c r="AL60" s="57"/>
       <c r="AM60" s="57"/>
       <c r="AN60" s="57"/>
@@ -14664,8 +14597,8 @@
       <c r="BL60" s="57"/>
       <c r="BM60" s="57"/>
       <c r="BN60" s="57"/>
-      <c r="BO60" s="128"/>
-      <c r="BP60" s="127"/>
+      <c r="BO60" s="72"/>
+      <c r="BP60" s="71"/>
       <c r="BQ60" s="57"/>
       <c r="BR60" s="57"/>
       <c r="BS60" s="57"/>
@@ -14694,8 +14627,8 @@
       <c r="CP60" s="57"/>
       <c r="CQ60" s="57"/>
       <c r="CR60" s="57"/>
-      <c r="CS60" s="128"/>
-      <c r="CT60" s="127"/>
+      <c r="CS60" s="72"/>
+      <c r="CT60" s="71"/>
       <c r="CU60" s="57"/>
       <c r="CV60" s="57"/>
       <c r="CW60" s="57"/>
@@ -14725,28 +14658,28 @@
       <c r="DU60" s="57"/>
       <c r="DV60" s="57"/>
       <c r="DW60" s="57"/>
-      <c r="DX60" s="128"/>
+      <c r="DX60" s="72"/>
       <c r="DY60" s="19"/>
     </row>
     <row r="61" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="134" t="s">
+      <c r="C61" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="104">
+      <c r="E61" s="123">
         <f>SUM($G62:$DX62)</f>
         <v>4</v>
       </c>
-      <c r="F61" s="110"/>
-      <c r="G61" s="130"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="73"/>
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
       <c r="J61" s="56"/>
@@ -14775,8 +14708,8 @@
       <c r="AG61" s="56"/>
       <c r="AH61" s="56"/>
       <c r="AI61" s="56"/>
-      <c r="AJ61" s="131"/>
-      <c r="AK61" s="130"/>
+      <c r="AJ61" s="74"/>
+      <c r="AK61" s="73"/>
       <c r="AL61" s="56"/>
       <c r="AM61" s="56"/>
       <c r="AN61" s="56"/>
@@ -14806,8 +14739,8 @@
       <c r="BL61" s="56"/>
       <c r="BM61" s="56"/>
       <c r="BN61" s="56"/>
-      <c r="BO61" s="131"/>
-      <c r="BP61" s="130"/>
+      <c r="BO61" s="74"/>
+      <c r="BP61" s="73"/>
       <c r="BQ61" s="56"/>
       <c r="BR61" s="56"/>
       <c r="BS61" s="56"/>
@@ -14836,8 +14769,8 @@
       <c r="CP61" s="56"/>
       <c r="CQ61" s="56"/>
       <c r="CR61" s="56"/>
-      <c r="CS61" s="131"/>
-      <c r="CT61" s="130"/>
+      <c r="CS61" s="74"/>
+      <c r="CT61" s="73"/>
       <c r="CU61" s="56"/>
       <c r="CV61" s="56"/>
       <c r="CW61" s="56"/>
@@ -14867,17 +14800,17 @@
       <c r="DU61" s="56"/>
       <c r="DV61" s="56"/>
       <c r="DW61" s="56"/>
-      <c r="DX61" s="131"/>
+      <c r="DX61" s="74"/>
       <c r="DY61" s="19"/>
     </row>
     <row r="62" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="84"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="125"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="58"/>
       <c r="I62" s="58"/>
       <c r="J62" s="58"/>
@@ -14908,8 +14841,8 @@
       </c>
       <c r="AH62" s="58"/>
       <c r="AI62" s="58"/>
-      <c r="AJ62" s="126"/>
-      <c r="AK62" s="125"/>
+      <c r="AJ62" s="70"/>
+      <c r="AK62" s="69"/>
       <c r="AL62" s="58"/>
       <c r="AM62" s="58"/>
       <c r="AN62" s="58"/>
@@ -14939,8 +14872,8 @@
       <c r="BL62" s="58"/>
       <c r="BM62" s="58"/>
       <c r="BN62" s="58"/>
-      <c r="BO62" s="126"/>
-      <c r="BP62" s="125"/>
+      <c r="BO62" s="70"/>
+      <c r="BP62" s="69"/>
       <c r="BQ62" s="58"/>
       <c r="BR62" s="58"/>
       <c r="BS62" s="58"/>
@@ -14969,8 +14902,8 @@
       <c r="CP62" s="58"/>
       <c r="CQ62" s="58"/>
       <c r="CR62" s="58"/>
-      <c r="CS62" s="126"/>
-      <c r="CT62" s="125"/>
+      <c r="CS62" s="70"/>
+      <c r="CT62" s="69"/>
       <c r="CU62" s="58"/>
       <c r="CV62" s="58"/>
       <c r="CW62" s="58"/>
@@ -15000,17 +14933,17 @@
       <c r="DU62" s="58"/>
       <c r="DV62" s="58"/>
       <c r="DW62" s="58"/>
-      <c r="DX62" s="126"/>
+      <c r="DX62" s="70"/>
       <c r="DY62" s="19"/>
     </row>
     <row r="63" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A63" s="84"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="127"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="71"/>
       <c r="H63" s="57"/>
       <c r="I63" s="57"/>
       <c r="J63" s="57"/>
@@ -15039,8 +14972,8 @@
       <c r="AG63" s="57"/>
       <c r="AH63" s="57"/>
       <c r="AI63" s="57"/>
-      <c r="AJ63" s="128"/>
-      <c r="AK63" s="127"/>
+      <c r="AJ63" s="72"/>
+      <c r="AK63" s="71"/>
       <c r="AL63" s="57"/>
       <c r="AM63" s="57"/>
       <c r="AN63" s="57"/>
@@ -15070,8 +15003,8 @@
       <c r="BL63" s="57"/>
       <c r="BM63" s="57"/>
       <c r="BN63" s="57"/>
-      <c r="BO63" s="128"/>
-      <c r="BP63" s="127"/>
+      <c r="BO63" s="72"/>
+      <c r="BP63" s="71"/>
       <c r="BQ63" s="57"/>
       <c r="BR63" s="57"/>
       <c r="BS63" s="57"/>
@@ -15100,8 +15033,8 @@
       <c r="CP63" s="57"/>
       <c r="CQ63" s="57"/>
       <c r="CR63" s="57"/>
-      <c r="CS63" s="128"/>
-      <c r="CT63" s="127"/>
+      <c r="CS63" s="72"/>
+      <c r="CT63" s="71"/>
       <c r="CU63" s="57"/>
       <c r="CV63" s="57"/>
       <c r="CW63" s="57"/>
@@ -15131,28 +15064,28 @@
       <c r="DU63" s="57"/>
       <c r="DV63" s="57"/>
       <c r="DW63" s="57"/>
-      <c r="DX63" s="128"/>
+      <c r="DX63" s="72"/>
       <c r="DY63" s="19"/>
     </row>
     <row r="64" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A64" s="135" t="s">
+      <c r="A64" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="134" t="s">
+      <c r="C64" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="110"/>
-      <c r="E64" s="104">
+      <c r="D64" s="109"/>
+      <c r="E64" s="123">
         <f>SUM($G65:$DX65)</f>
         <v>1</v>
       </c>
-      <c r="F64" s="110" t="s">
+      <c r="F64" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="G64" s="130"/>
+      <c r="G64" s="73"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
       <c r="J64" s="56"/>
@@ -15181,8 +15114,8 @@
       <c r="AG64" s="56"/>
       <c r="AH64" s="56"/>
       <c r="AI64" s="56"/>
-      <c r="AJ64" s="131"/>
-      <c r="AK64" s="130"/>
+      <c r="AJ64" s="74"/>
+      <c r="AK64" s="73"/>
       <c r="AL64" s="56"/>
       <c r="AM64" s="56"/>
       <c r="AN64" s="56"/>
@@ -15212,8 +15145,8 @@
       <c r="BL64" s="56"/>
       <c r="BM64" s="56"/>
       <c r="BN64" s="56"/>
-      <c r="BO64" s="131"/>
-      <c r="BP64" s="130"/>
+      <c r="BO64" s="74"/>
+      <c r="BP64" s="73"/>
       <c r="BQ64" s="56"/>
       <c r="BR64" s="56"/>
       <c r="BS64" s="56"/>
@@ -15242,8 +15175,8 @@
       <c r="CP64" s="56"/>
       <c r="CQ64" s="56"/>
       <c r="CR64" s="56"/>
-      <c r="CS64" s="131"/>
-      <c r="CT64" s="130"/>
+      <c r="CS64" s="74"/>
+      <c r="CT64" s="73"/>
       <c r="CU64" s="56"/>
       <c r="CV64" s="56"/>
       <c r="CW64" s="56"/>
@@ -15273,17 +15206,17 @@
       <c r="DU64" s="56"/>
       <c r="DV64" s="56"/>
       <c r="DW64" s="56"/>
-      <c r="DX64" s="131"/>
+      <c r="DX64" s="74"/>
       <c r="DY64" s="19"/>
     </row>
     <row r="65" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A65" s="84"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="125"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="58"/>
       <c r="I65" s="58"/>
       <c r="J65" s="58"/>
@@ -15314,8 +15247,8 @@
         <v>1</v>
       </c>
       <c r="AI65" s="58"/>
-      <c r="AJ65" s="126"/>
-      <c r="AK65" s="125"/>
+      <c r="AJ65" s="70"/>
+      <c r="AK65" s="69"/>
       <c r="AL65" s="58"/>
       <c r="AM65" s="58"/>
       <c r="AN65" s="58"/>
@@ -15345,8 +15278,8 @@
       <c r="BL65" s="58"/>
       <c r="BM65" s="58"/>
       <c r="BN65" s="58"/>
-      <c r="BO65" s="126"/>
-      <c r="BP65" s="125"/>
+      <c r="BO65" s="70"/>
+      <c r="BP65" s="69"/>
       <c r="BQ65" s="58"/>
       <c r="BR65" s="58"/>
       <c r="BS65" s="58"/>
@@ -15375,8 +15308,8 @@
       <c r="CP65" s="58"/>
       <c r="CQ65" s="58"/>
       <c r="CR65" s="58"/>
-      <c r="CS65" s="126"/>
-      <c r="CT65" s="125"/>
+      <c r="CS65" s="70"/>
+      <c r="CT65" s="69"/>
       <c r="CU65" s="58"/>
       <c r="CV65" s="58"/>
       <c r="CW65" s="58"/>
@@ -15406,17 +15339,17 @@
       <c r="DU65" s="58"/>
       <c r="DV65" s="58"/>
       <c r="DW65" s="58"/>
-      <c r="DX65" s="126"/>
+      <c r="DX65" s="70"/>
       <c r="DY65" s="19"/>
     </row>
     <row r="66" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="127"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="71"/>
       <c r="H66" s="57"/>
       <c r="I66" s="57"/>
       <c r="J66" s="57"/>
@@ -15445,8 +15378,8 @@
       <c r="AG66" s="57"/>
       <c r="AH66" s="57"/>
       <c r="AI66" s="57"/>
-      <c r="AJ66" s="128"/>
-      <c r="AK66" s="127"/>
+      <c r="AJ66" s="72"/>
+      <c r="AK66" s="71"/>
       <c r="AL66" s="57"/>
       <c r="AM66" s="57"/>
       <c r="AN66" s="57"/>
@@ -15476,8 +15409,8 @@
       <c r="BL66" s="57"/>
       <c r="BM66" s="57"/>
       <c r="BN66" s="57"/>
-      <c r="BO66" s="128"/>
-      <c r="BP66" s="127"/>
+      <c r="BO66" s="72"/>
+      <c r="BP66" s="71"/>
       <c r="BQ66" s="57"/>
       <c r="BR66" s="57"/>
       <c r="BS66" s="57"/>
@@ -15506,8 +15439,8 @@
       <c r="CP66" s="57"/>
       <c r="CQ66" s="57"/>
       <c r="CR66" s="57"/>
-      <c r="CS66" s="128"/>
-      <c r="CT66" s="127"/>
+      <c r="CS66" s="72"/>
+      <c r="CT66" s="71"/>
       <c r="CU66" s="57"/>
       <c r="CV66" s="57"/>
       <c r="CW66" s="57"/>
@@ -15537,26 +15470,26 @@
       <c r="DU66" s="57"/>
       <c r="DV66" s="57"/>
       <c r="DW66" s="57"/>
-      <c r="DX66" s="128"/>
+      <c r="DX66" s="72"/>
       <c r="DY66" s="19"/>
     </row>
     <row r="67" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="86"/>
-      <c r="C67" s="94" t="s">
+      <c r="B67" s="114"/>
+      <c r="C67" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="110"/>
-      <c r="E67" s="104">
+      <c r="D67" s="109"/>
+      <c r="E67" s="123">
         <f>SUM($G68:$DX68)</f>
         <v>0</v>
       </c>
-      <c r="F67" s="110" t="s">
+      <c r="F67" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="G67" s="130"/>
+      <c r="G67" s="73"/>
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
       <c r="J67" s="56"/>
@@ -15585,8 +15518,8 @@
       <c r="AG67" s="56"/>
       <c r="AH67" s="56"/>
       <c r="AI67" s="56"/>
-      <c r="AJ67" s="131"/>
-      <c r="AK67" s="130"/>
+      <c r="AJ67" s="74"/>
+      <c r="AK67" s="73"/>
       <c r="AL67" s="56"/>
       <c r="AM67" s="56"/>
       <c r="AN67" s="56"/>
@@ -15616,8 +15549,8 @@
       <c r="BL67" s="56"/>
       <c r="BM67" s="56"/>
       <c r="BN67" s="56"/>
-      <c r="BO67" s="131"/>
-      <c r="BP67" s="130"/>
+      <c r="BO67" s="74"/>
+      <c r="BP67" s="73"/>
       <c r="BQ67" s="56"/>
       <c r="BR67" s="56"/>
       <c r="BS67" s="56"/>
@@ -15646,8 +15579,8 @@
       <c r="CP67" s="56"/>
       <c r="CQ67" s="56"/>
       <c r="CR67" s="56"/>
-      <c r="CS67" s="131"/>
-      <c r="CT67" s="130"/>
+      <c r="CS67" s="74"/>
+      <c r="CT67" s="73"/>
       <c r="CU67" s="56"/>
       <c r="CV67" s="56"/>
       <c r="CW67" s="56"/>
@@ -15677,17 +15610,17 @@
       <c r="DU67" s="56"/>
       <c r="DV67" s="56"/>
       <c r="DW67" s="56"/>
-      <c r="DX67" s="131"/>
+      <c r="DX67" s="74"/>
       <c r="DY67" s="19"/>
     </row>
     <row r="68" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A68" s="84"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="125"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="69"/>
       <c r="H68" s="58"/>
       <c r="I68" s="58"/>
       <c r="J68" s="58"/>
@@ -15716,8 +15649,8 @@
       <c r="AG68" s="58"/>
       <c r="AH68" s="58"/>
       <c r="AI68" s="58"/>
-      <c r="AJ68" s="126"/>
-      <c r="AK68" s="125"/>
+      <c r="AJ68" s="70"/>
+      <c r="AK68" s="69"/>
       <c r="AL68" s="58"/>
       <c r="AM68" s="58"/>
       <c r="AN68" s="58"/>
@@ -15747,8 +15680,8 @@
       <c r="BL68" s="58"/>
       <c r="BM68" s="58"/>
       <c r="BN68" s="58"/>
-      <c r="BO68" s="126"/>
-      <c r="BP68" s="125"/>
+      <c r="BO68" s="70"/>
+      <c r="BP68" s="69"/>
       <c r="BQ68" s="58"/>
       <c r="BR68" s="58"/>
       <c r="BS68" s="58"/>
@@ -15777,8 +15710,8 @@
       <c r="CP68" s="58"/>
       <c r="CQ68" s="58"/>
       <c r="CR68" s="58"/>
-      <c r="CS68" s="126"/>
-      <c r="CT68" s="125"/>
+      <c r="CS68" s="70"/>
+      <c r="CT68" s="69"/>
       <c r="CU68" s="58"/>
       <c r="CV68" s="58"/>
       <c r="CW68" s="58"/>
@@ -15808,17 +15741,17 @@
       <c r="DU68" s="58"/>
       <c r="DV68" s="58"/>
       <c r="DW68" s="58"/>
-      <c r="DX68" s="126"/>
+      <c r="DX68" s="70"/>
       <c r="DY68" s="19"/>
     </row>
     <row r="69" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A69" s="84"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="127"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="71"/>
       <c r="H69" s="57"/>
       <c r="I69" s="57"/>
       <c r="J69" s="57"/>
@@ -15847,8 +15780,8 @@
       <c r="AG69" s="57"/>
       <c r="AH69" s="57"/>
       <c r="AI69" s="57"/>
-      <c r="AJ69" s="128"/>
-      <c r="AK69" s="127"/>
+      <c r="AJ69" s="72"/>
+      <c r="AK69" s="71"/>
       <c r="AL69" s="57"/>
       <c r="AM69" s="57"/>
       <c r="AN69" s="57"/>
@@ -15878,8 +15811,8 @@
       <c r="BL69" s="57"/>
       <c r="BM69" s="57"/>
       <c r="BN69" s="57"/>
-      <c r="BO69" s="128"/>
-      <c r="BP69" s="127"/>
+      <c r="BO69" s="72"/>
+      <c r="BP69" s="71"/>
       <c r="BQ69" s="57"/>
       <c r="BR69" s="57"/>
       <c r="BS69" s="57"/>
@@ -15908,8 +15841,8 @@
       <c r="CP69" s="57"/>
       <c r="CQ69" s="57"/>
       <c r="CR69" s="57"/>
-      <c r="CS69" s="128"/>
-      <c r="CT69" s="127"/>
+      <c r="CS69" s="72"/>
+      <c r="CT69" s="71"/>
       <c r="CU69" s="57"/>
       <c r="CV69" s="57"/>
       <c r="CW69" s="57"/>
@@ -15939,26 +15872,26 @@
       <c r="DU69" s="57"/>
       <c r="DV69" s="57"/>
       <c r="DW69" s="57"/>
-      <c r="DX69" s="128"/>
+      <c r="DX69" s="72"/>
       <c r="DY69" s="19"/>
     </row>
     <row r="70" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="86"/>
-      <c r="C70" s="94" t="s">
+      <c r="B70" s="114"/>
+      <c r="C70" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="110"/>
-      <c r="E70" s="104">
+      <c r="D70" s="109"/>
+      <c r="E70" s="123">
         <f>SUM($G71:$DX71)</f>
         <v>0</v>
       </c>
-      <c r="F70" s="110" t="s">
+      <c r="F70" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="G70" s="130"/>
+      <c r="G70" s="73"/>
       <c r="H70" s="56"/>
       <c r="I70" s="56"/>
       <c r="J70" s="56"/>
@@ -15987,8 +15920,8 @@
       <c r="AG70" s="56"/>
       <c r="AH70" s="56"/>
       <c r="AI70" s="56"/>
-      <c r="AJ70" s="131"/>
-      <c r="AK70" s="130"/>
+      <c r="AJ70" s="74"/>
+      <c r="AK70" s="73"/>
       <c r="AL70" s="56"/>
       <c r="AM70" s="56"/>
       <c r="AN70" s="56"/>
@@ -16018,8 +15951,8 @@
       <c r="BL70" s="56"/>
       <c r="BM70" s="56"/>
       <c r="BN70" s="56"/>
-      <c r="BO70" s="131"/>
-      <c r="BP70" s="130"/>
+      <c r="BO70" s="74"/>
+      <c r="BP70" s="73"/>
       <c r="BQ70" s="56"/>
       <c r="BR70" s="56"/>
       <c r="BS70" s="56"/>
@@ -16048,8 +15981,8 @@
       <c r="CP70" s="56"/>
       <c r="CQ70" s="56"/>
       <c r="CR70" s="56"/>
-      <c r="CS70" s="131"/>
-      <c r="CT70" s="130"/>
+      <c r="CS70" s="74"/>
+      <c r="CT70" s="73"/>
       <c r="CU70" s="56"/>
       <c r="CV70" s="56"/>
       <c r="CW70" s="56"/>
@@ -16079,17 +16012,17 @@
       <c r="DU70" s="56"/>
       <c r="DV70" s="56"/>
       <c r="DW70" s="56"/>
-      <c r="DX70" s="131"/>
+      <c r="DX70" s="74"/>
       <c r="DY70" s="19"/>
     </row>
     <row r="71" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A71" s="84"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="125"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="58"/>
       <c r="I71" s="58"/>
       <c r="J71" s="58"/>
@@ -16118,8 +16051,8 @@
       <c r="AG71" s="58"/>
       <c r="AH71" s="58"/>
       <c r="AI71" s="58"/>
-      <c r="AJ71" s="126"/>
-      <c r="AK71" s="125"/>
+      <c r="AJ71" s="70"/>
+      <c r="AK71" s="69"/>
       <c r="AL71" s="58"/>
       <c r="AM71" s="58"/>
       <c r="AN71" s="58"/>
@@ -16149,8 +16082,8 @@
       <c r="BL71" s="58"/>
       <c r="BM71" s="58"/>
       <c r="BN71" s="58"/>
-      <c r="BO71" s="126"/>
-      <c r="BP71" s="125"/>
+      <c r="BO71" s="70"/>
+      <c r="BP71" s="69"/>
       <c r="BQ71" s="58"/>
       <c r="BR71" s="58"/>
       <c r="BS71" s="58"/>
@@ -16179,8 +16112,8 @@
       <c r="CP71" s="58"/>
       <c r="CQ71" s="58"/>
       <c r="CR71" s="58"/>
-      <c r="CS71" s="126"/>
-      <c r="CT71" s="125"/>
+      <c r="CS71" s="70"/>
+      <c r="CT71" s="69"/>
       <c r="CU71" s="58"/>
       <c r="CV71" s="58"/>
       <c r="CW71" s="58"/>
@@ -16210,17 +16143,17 @@
       <c r="DU71" s="58"/>
       <c r="DV71" s="58"/>
       <c r="DW71" s="58"/>
-      <c r="DX71" s="126"/>
+      <c r="DX71" s="70"/>
       <c r="DY71" s="19"/>
     </row>
     <row r="72" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A72" s="84"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="127"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="71"/>
       <c r="H72" s="57"/>
       <c r="I72" s="57"/>
       <c r="J72" s="57"/>
@@ -16249,8 +16182,8 @@
       <c r="AG72" s="57"/>
       <c r="AH72" s="57"/>
       <c r="AI72" s="57"/>
-      <c r="AJ72" s="128"/>
-      <c r="AK72" s="127"/>
+      <c r="AJ72" s="72"/>
+      <c r="AK72" s="71"/>
       <c r="AL72" s="57"/>
       <c r="AM72" s="57"/>
       <c r="AN72" s="57"/>
@@ -16280,8 +16213,8 @@
       <c r="BL72" s="57"/>
       <c r="BM72" s="57"/>
       <c r="BN72" s="57"/>
-      <c r="BO72" s="128"/>
-      <c r="BP72" s="127"/>
+      <c r="BO72" s="72"/>
+      <c r="BP72" s="71"/>
       <c r="BQ72" s="57"/>
       <c r="BR72" s="57"/>
       <c r="BS72" s="57"/>
@@ -16310,8 +16243,8 @@
       <c r="CP72" s="57"/>
       <c r="CQ72" s="57"/>
       <c r="CR72" s="57"/>
-      <c r="CS72" s="128"/>
-      <c r="CT72" s="127"/>
+      <c r="CS72" s="72"/>
+      <c r="CT72" s="71"/>
       <c r="CU72" s="57"/>
       <c r="CV72" s="57"/>
       <c r="CW72" s="57"/>
@@ -16341,26 +16274,26 @@
       <c r="DU72" s="57"/>
       <c r="DV72" s="57"/>
       <c r="DW72" s="57"/>
-      <c r="DX72" s="128"/>
+      <c r="DX72" s="72"/>
       <c r="DY72" s="19"/>
     </row>
     <row r="73" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="94" t="s">
+      <c r="B73" s="114"/>
+      <c r="C73" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="D73" s="110"/>
-      <c r="E73" s="104">
+      <c r="D73" s="109"/>
+      <c r="E73" s="123">
         <f>SUM($G74:$DX74)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="110" t="s">
+      <c r="F73" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="130"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
       <c r="J73" s="56"/>
@@ -16389,8 +16322,8 @@
       <c r="AG73" s="56"/>
       <c r="AH73" s="56"/>
       <c r="AI73" s="56"/>
-      <c r="AJ73" s="131"/>
-      <c r="AK73" s="130"/>
+      <c r="AJ73" s="74"/>
+      <c r="AK73" s="73"/>
       <c r="AL73" s="56"/>
       <c r="AM73" s="56"/>
       <c r="AN73" s="56"/>
@@ -16420,8 +16353,8 @@
       <c r="BL73" s="56"/>
       <c r="BM73" s="56"/>
       <c r="BN73" s="56"/>
-      <c r="BO73" s="131"/>
-      <c r="BP73" s="130"/>
+      <c r="BO73" s="74"/>
+      <c r="BP73" s="73"/>
       <c r="BQ73" s="56"/>
       <c r="BR73" s="56"/>
       <c r="BS73" s="56"/>
@@ -16450,8 +16383,8 @@
       <c r="CP73" s="56"/>
       <c r="CQ73" s="56"/>
       <c r="CR73" s="56"/>
-      <c r="CS73" s="131"/>
-      <c r="CT73" s="130"/>
+      <c r="CS73" s="74"/>
+      <c r="CT73" s="73"/>
       <c r="CU73" s="56"/>
       <c r="CV73" s="56"/>
       <c r="CW73" s="56"/>
@@ -16481,17 +16414,17 @@
       <c r="DU73" s="56"/>
       <c r="DV73" s="56"/>
       <c r="DW73" s="56"/>
-      <c r="DX73" s="131"/>
+      <c r="DX73" s="74"/>
       <c r="DY73" s="19"/>
     </row>
     <row r="74" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A74" s="84"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="125"/>
+      <c r="A74" s="112"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="69"/>
       <c r="H74" s="58"/>
       <c r="I74" s="58"/>
       <c r="J74" s="58"/>
@@ -16520,8 +16453,8 @@
       <c r="AG74" s="58"/>
       <c r="AH74" s="58"/>
       <c r="AI74" s="58"/>
-      <c r="AJ74" s="126"/>
-      <c r="AK74" s="125"/>
+      <c r="AJ74" s="70"/>
+      <c r="AK74" s="69"/>
       <c r="AL74" s="58"/>
       <c r="AM74" s="58"/>
       <c r="AN74" s="58"/>
@@ -16551,8 +16484,8 @@
       <c r="BL74" s="58"/>
       <c r="BM74" s="58"/>
       <c r="BN74" s="58"/>
-      <c r="BO74" s="126"/>
-      <c r="BP74" s="125"/>
+      <c r="BO74" s="70"/>
+      <c r="BP74" s="69"/>
       <c r="BQ74" s="58"/>
       <c r="BR74" s="58"/>
       <c r="BS74" s="58"/>
@@ -16581,8 +16514,8 @@
       <c r="CP74" s="58"/>
       <c r="CQ74" s="58"/>
       <c r="CR74" s="58"/>
-      <c r="CS74" s="126"/>
-      <c r="CT74" s="125"/>
+      <c r="CS74" s="70"/>
+      <c r="CT74" s="69"/>
       <c r="CU74" s="58"/>
       <c r="CV74" s="58"/>
       <c r="CW74" s="58"/>
@@ -16612,17 +16545,17 @@
       <c r="DU74" s="58"/>
       <c r="DV74" s="58"/>
       <c r="DW74" s="58"/>
-      <c r="DX74" s="126"/>
+      <c r="DX74" s="70"/>
       <c r="DY74" s="19"/>
     </row>
     <row r="75" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A75" s="84"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="127"/>
+      <c r="A75" s="112"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="71"/>
       <c r="H75" s="57"/>
       <c r="I75" s="57"/>
       <c r="J75" s="57"/>
@@ -16651,8 +16584,8 @@
       <c r="AG75" s="57"/>
       <c r="AH75" s="57"/>
       <c r="AI75" s="57"/>
-      <c r="AJ75" s="128"/>
-      <c r="AK75" s="127"/>
+      <c r="AJ75" s="72"/>
+      <c r="AK75" s="71"/>
       <c r="AL75" s="57"/>
       <c r="AM75" s="57"/>
       <c r="AN75" s="57"/>
@@ -16682,8 +16615,8 @@
       <c r="BL75" s="57"/>
       <c r="BM75" s="57"/>
       <c r="BN75" s="57"/>
-      <c r="BO75" s="128"/>
-      <c r="BP75" s="127"/>
+      <c r="BO75" s="72"/>
+      <c r="BP75" s="71"/>
       <c r="BQ75" s="57"/>
       <c r="BR75" s="57"/>
       <c r="BS75" s="57"/>
@@ -16712,8 +16645,8 @@
       <c r="CP75" s="57"/>
       <c r="CQ75" s="57"/>
       <c r="CR75" s="57"/>
-      <c r="CS75" s="128"/>
-      <c r="CT75" s="127"/>
+      <c r="CS75" s="72"/>
+      <c r="CT75" s="71"/>
       <c r="CU75" s="57"/>
       <c r="CV75" s="57"/>
       <c r="CW75" s="57"/>
@@ -16743,26 +16676,26 @@
       <c r="DU75" s="57"/>
       <c r="DV75" s="57"/>
       <c r="DW75" s="57"/>
-      <c r="DX75" s="128"/>
+      <c r="DX75" s="72"/>
       <c r="DY75" s="19"/>
     </row>
     <row r="76" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="86"/>
-      <c r="C76" s="94" t="s">
+      <c r="B76" s="114"/>
+      <c r="C76" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="D76" s="110"/>
-      <c r="E76" s="104">
+      <c r="D76" s="109"/>
+      <c r="E76" s="123">
         <f>SUM($G77:$DX77)</f>
         <v>0</v>
       </c>
-      <c r="F76" s="110" t="s">
+      <c r="F76" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="G76" s="130"/>
+      <c r="G76" s="73"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
       <c r="J76" s="56"/>
@@ -16791,8 +16724,8 @@
       <c r="AG76" s="56"/>
       <c r="AH76" s="56"/>
       <c r="AI76" s="56"/>
-      <c r="AJ76" s="131"/>
-      <c r="AK76" s="130"/>
+      <c r="AJ76" s="74"/>
+      <c r="AK76" s="73"/>
       <c r="AL76" s="56"/>
       <c r="AM76" s="56"/>
       <c r="AN76" s="56"/>
@@ -16822,8 +16755,8 @@
       <c r="BL76" s="56"/>
       <c r="BM76" s="56"/>
       <c r="BN76" s="56"/>
-      <c r="BO76" s="131"/>
-      <c r="BP76" s="130"/>
+      <c r="BO76" s="74"/>
+      <c r="BP76" s="73"/>
       <c r="BQ76" s="56"/>
       <c r="BR76" s="56"/>
       <c r="BS76" s="56"/>
@@ -16852,8 +16785,8 @@
       <c r="CP76" s="56"/>
       <c r="CQ76" s="56"/>
       <c r="CR76" s="56"/>
-      <c r="CS76" s="131"/>
-      <c r="CT76" s="130"/>
+      <c r="CS76" s="74"/>
+      <c r="CT76" s="73"/>
       <c r="CU76" s="56"/>
       <c r="CV76" s="56"/>
       <c r="CW76" s="56"/>
@@ -16883,17 +16816,17 @@
       <c r="DU76" s="56"/>
       <c r="DV76" s="56"/>
       <c r="DW76" s="56"/>
-      <c r="DX76" s="131"/>
+      <c r="DX76" s="74"/>
       <c r="DY76" s="19"/>
     </row>
     <row r="77" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A77" s="84"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="125"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="58"/>
       <c r="I77" s="58"/>
       <c r="J77" s="58"/>
@@ -16922,8 +16855,8 @@
       <c r="AG77" s="58"/>
       <c r="AH77" s="58"/>
       <c r="AI77" s="58"/>
-      <c r="AJ77" s="126"/>
-      <c r="AK77" s="125"/>
+      <c r="AJ77" s="70"/>
+      <c r="AK77" s="69"/>
       <c r="AL77" s="58"/>
       <c r="AM77" s="58"/>
       <c r="AN77" s="58"/>
@@ -16953,8 +16886,8 @@
       <c r="BL77" s="58"/>
       <c r="BM77" s="58"/>
       <c r="BN77" s="58"/>
-      <c r="BO77" s="126"/>
-      <c r="BP77" s="125"/>
+      <c r="BO77" s="70"/>
+      <c r="BP77" s="69"/>
       <c r="BQ77" s="58"/>
       <c r="BR77" s="58"/>
       <c r="BS77" s="58"/>
@@ -16983,8 +16916,8 @@
       <c r="CP77" s="58"/>
       <c r="CQ77" s="58"/>
       <c r="CR77" s="58"/>
-      <c r="CS77" s="126"/>
-      <c r="CT77" s="125"/>
+      <c r="CS77" s="70"/>
+      <c r="CT77" s="69"/>
       <c r="CU77" s="58"/>
       <c r="CV77" s="58"/>
       <c r="CW77" s="58"/>
@@ -17014,17 +16947,17 @@
       <c r="DU77" s="58"/>
       <c r="DV77" s="58"/>
       <c r="DW77" s="58"/>
-      <c r="DX77" s="126"/>
+      <c r="DX77" s="70"/>
       <c r="DY77" s="19"/>
     </row>
     <row r="78" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A78" s="84"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="127"/>
+      <c r="A78" s="112"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="57"/>
       <c r="I78" s="57"/>
       <c r="J78" s="57"/>
@@ -17053,8 +16986,8 @@
       <c r="AG78" s="57"/>
       <c r="AH78" s="57"/>
       <c r="AI78" s="57"/>
-      <c r="AJ78" s="128"/>
-      <c r="AK78" s="127"/>
+      <c r="AJ78" s="72"/>
+      <c r="AK78" s="71"/>
       <c r="AL78" s="57"/>
       <c r="AM78" s="57"/>
       <c r="AN78" s="57"/>
@@ -17084,8 +17017,8 @@
       <c r="BL78" s="57"/>
       <c r="BM78" s="57"/>
       <c r="BN78" s="57"/>
-      <c r="BO78" s="128"/>
-      <c r="BP78" s="127"/>
+      <c r="BO78" s="72"/>
+      <c r="BP78" s="71"/>
       <c r="BQ78" s="57"/>
       <c r="BR78" s="57"/>
       <c r="BS78" s="57"/>
@@ -17114,8 +17047,8 @@
       <c r="CP78" s="57"/>
       <c r="CQ78" s="57"/>
       <c r="CR78" s="57"/>
-      <c r="CS78" s="128"/>
-      <c r="CT78" s="127"/>
+      <c r="CS78" s="72"/>
+      <c r="CT78" s="71"/>
       <c r="CU78" s="57"/>
       <c r="CV78" s="57"/>
       <c r="CW78" s="57"/>
@@ -17145,20 +17078,20 @@
       <c r="DU78" s="57"/>
       <c r="DV78" s="57"/>
       <c r="DW78" s="57"/>
-      <c r="DX78" s="128"/>
+      <c r="DX78" s="72"/>
       <c r="DY78" s="19"/>
     </row>
     <row r="79" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A79" s="84"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="104">
+      <c r="A79" s="112"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="109"/>
+      <c r="E79" s="123">
         <f>SUM($G80:$DX80)</f>
         <v>0</v>
       </c>
-      <c r="F79" s="110"/>
-      <c r="G79" s="130"/>
+      <c r="F79" s="109"/>
+      <c r="G79" s="73"/>
       <c r="H79" s="56"/>
       <c r="I79" s="56"/>
       <c r="J79" s="56"/>
@@ -17187,8 +17120,8 @@
       <c r="AG79" s="56"/>
       <c r="AH79" s="56"/>
       <c r="AI79" s="56"/>
-      <c r="AJ79" s="131"/>
-      <c r="AK79" s="130"/>
+      <c r="AJ79" s="74"/>
+      <c r="AK79" s="73"/>
       <c r="AL79" s="56"/>
       <c r="AM79" s="56"/>
       <c r="AN79" s="56"/>
@@ -17218,8 +17151,8 @@
       <c r="BL79" s="56"/>
       <c r="BM79" s="56"/>
       <c r="BN79" s="56"/>
-      <c r="BO79" s="131"/>
-      <c r="BP79" s="130"/>
+      <c r="BO79" s="74"/>
+      <c r="BP79" s="73"/>
       <c r="BQ79" s="56"/>
       <c r="BR79" s="56"/>
       <c r="BS79" s="56"/>
@@ -17248,8 +17181,8 @@
       <c r="CP79" s="56"/>
       <c r="CQ79" s="56"/>
       <c r="CR79" s="56"/>
-      <c r="CS79" s="131"/>
-      <c r="CT79" s="130"/>
+      <c r="CS79" s="74"/>
+      <c r="CT79" s="73"/>
       <c r="CU79" s="56"/>
       <c r="CV79" s="56"/>
       <c r="CW79" s="56"/>
@@ -17279,17 +17212,17 @@
       <c r="DU79" s="56"/>
       <c r="DV79" s="56"/>
       <c r="DW79" s="56"/>
-      <c r="DX79" s="131"/>
+      <c r="DX79" s="74"/>
       <c r="DY79" s="19"/>
     </row>
     <row r="80" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A80" s="84"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="125"/>
+      <c r="A80" s="112"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="69"/>
       <c r="H80" s="58"/>
       <c r="I80" s="58"/>
       <c r="J80" s="58"/>
@@ -17318,8 +17251,8 @@
       <c r="AG80" s="58"/>
       <c r="AH80" s="58"/>
       <c r="AI80" s="58"/>
-      <c r="AJ80" s="126"/>
-      <c r="AK80" s="125"/>
+      <c r="AJ80" s="70"/>
+      <c r="AK80" s="69"/>
       <c r="AL80" s="58"/>
       <c r="AM80" s="58"/>
       <c r="AN80" s="58"/>
@@ -17349,8 +17282,8 @@
       <c r="BL80" s="58"/>
       <c r="BM80" s="58"/>
       <c r="BN80" s="58"/>
-      <c r="BO80" s="126"/>
-      <c r="BP80" s="125"/>
+      <c r="BO80" s="70"/>
+      <c r="BP80" s="69"/>
       <c r="BQ80" s="58"/>
       <c r="BR80" s="58"/>
       <c r="BS80" s="58"/>
@@ -17379,8 +17312,8 @@
       <c r="CP80" s="58"/>
       <c r="CQ80" s="58"/>
       <c r="CR80" s="58"/>
-      <c r="CS80" s="126"/>
-      <c r="CT80" s="125"/>
+      <c r="CS80" s="70"/>
+      <c r="CT80" s="69"/>
       <c r="CU80" s="58"/>
       <c r="CV80" s="58"/>
       <c r="CW80" s="58"/>
@@ -17410,17 +17343,17 @@
       <c r="DU80" s="58"/>
       <c r="DV80" s="58"/>
       <c r="DW80" s="58"/>
-      <c r="DX80" s="126"/>
+      <c r="DX80" s="70"/>
       <c r="DY80" s="19"/>
     </row>
     <row r="81" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A81" s="84"/>
-      <c r="B81" s="86"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="127"/>
+      <c r="A81" s="112"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="71"/>
       <c r="H81" s="57"/>
       <c r="I81" s="57"/>
       <c r="J81" s="57"/>
@@ -17449,8 +17382,8 @@
       <c r="AG81" s="57"/>
       <c r="AH81" s="57"/>
       <c r="AI81" s="57"/>
-      <c r="AJ81" s="128"/>
-      <c r="AK81" s="127"/>
+      <c r="AJ81" s="72"/>
+      <c r="AK81" s="71"/>
       <c r="AL81" s="57"/>
       <c r="AM81" s="57"/>
       <c r="AN81" s="57"/>
@@ -17480,8 +17413,8 @@
       <c r="BL81" s="57"/>
       <c r="BM81" s="57"/>
       <c r="BN81" s="57"/>
-      <c r="BO81" s="128"/>
-      <c r="BP81" s="127"/>
+      <c r="BO81" s="72"/>
+      <c r="BP81" s="71"/>
       <c r="BQ81" s="57"/>
       <c r="BR81" s="57"/>
       <c r="BS81" s="57"/>
@@ -17510,8 +17443,8 @@
       <c r="CP81" s="57"/>
       <c r="CQ81" s="57"/>
       <c r="CR81" s="57"/>
-      <c r="CS81" s="128"/>
-      <c r="CT81" s="127"/>
+      <c r="CS81" s="72"/>
+      <c r="CT81" s="71"/>
       <c r="CU81" s="57"/>
       <c r="CV81" s="57"/>
       <c r="CW81" s="57"/>
@@ -17541,20 +17474,20 @@
       <c r="DU81" s="57"/>
       <c r="DV81" s="57"/>
       <c r="DW81" s="57"/>
-      <c r="DX81" s="128"/>
+      <c r="DX81" s="72"/>
       <c r="DY81" s="19"/>
     </row>
     <row r="82" spans="1:129" ht="12" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="84"/>
-      <c r="B82" s="86"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="113">
+      <c r="A82" s="112"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="109"/>
+      <c r="E82" s="120">
         <f>SUM($G83:$DX83)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="110"/>
-      <c r="G82" s="130"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="73"/>
       <c r="H82" s="56"/>
       <c r="I82" s="56"/>
       <c r="J82" s="56"/>
@@ -17583,8 +17516,8 @@
       <c r="AG82" s="56"/>
       <c r="AH82" s="56"/>
       <c r="AI82" s="56"/>
-      <c r="AJ82" s="131"/>
-      <c r="AK82" s="130"/>
+      <c r="AJ82" s="74"/>
+      <c r="AK82" s="73"/>
       <c r="AL82" s="56"/>
       <c r="AM82" s="56"/>
       <c r="AN82" s="56"/>
@@ -17614,8 +17547,8 @@
       <c r="BL82" s="56"/>
       <c r="BM82" s="56"/>
       <c r="BN82" s="56"/>
-      <c r="BO82" s="131"/>
-      <c r="BP82" s="130"/>
+      <c r="BO82" s="74"/>
+      <c r="BP82" s="73"/>
       <c r="BQ82" s="56"/>
       <c r="BR82" s="56"/>
       <c r="BS82" s="56"/>
@@ -17644,8 +17577,8 @@
       <c r="CP82" s="56"/>
       <c r="CQ82" s="56"/>
       <c r="CR82" s="56"/>
-      <c r="CS82" s="131"/>
-      <c r="CT82" s="130"/>
+      <c r="CS82" s="74"/>
+      <c r="CT82" s="73"/>
       <c r="CU82" s="56"/>
       <c r="CV82" s="56"/>
       <c r="CW82" s="56"/>
@@ -17675,17 +17608,17 @@
       <c r="DU82" s="56"/>
       <c r="DV82" s="56"/>
       <c r="DW82" s="56"/>
-      <c r="DX82" s="131"/>
+      <c r="DX82" s="74"/>
       <c r="DY82" s="19"/>
     </row>
     <row r="83" spans="1:129" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A83" s="84"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="111"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="125"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="110"/>
+      <c r="F83" s="110"/>
+      <c r="G83" s="69"/>
       <c r="H83" s="58"/>
       <c r="I83" s="58"/>
       <c r="J83" s="58"/>
@@ -17714,8 +17647,8 @@
       <c r="AG83" s="58"/>
       <c r="AH83" s="58"/>
       <c r="AI83" s="58"/>
-      <c r="AJ83" s="126"/>
-      <c r="AK83" s="125"/>
+      <c r="AJ83" s="70"/>
+      <c r="AK83" s="69"/>
       <c r="AL83" s="58"/>
       <c r="AM83" s="58"/>
       <c r="AN83" s="58"/>
@@ -17745,8 +17678,8 @@
       <c r="BL83" s="58"/>
       <c r="BM83" s="58"/>
       <c r="BN83" s="58"/>
-      <c r="BO83" s="126"/>
-      <c r="BP83" s="125"/>
+      <c r="BO83" s="70"/>
+      <c r="BP83" s="69"/>
       <c r="BQ83" s="58"/>
       <c r="BR83" s="58"/>
       <c r="BS83" s="58"/>
@@ -17775,8 +17708,8 @@
       <c r="CP83" s="58"/>
       <c r="CQ83" s="58"/>
       <c r="CR83" s="58"/>
-      <c r="CS83" s="126"/>
-      <c r="CT83" s="125"/>
+      <c r="CS83" s="70"/>
+      <c r="CT83" s="69"/>
       <c r="CU83" s="58"/>
       <c r="CV83" s="58"/>
       <c r="CW83" s="58"/>
@@ -17806,769 +17739,769 @@
       <c r="DU83" s="58"/>
       <c r="DV83" s="58"/>
       <c r="DW83" s="58"/>
-      <c r="DX83" s="126"/>
+      <c r="DX83" s="70"/>
       <c r="DY83" s="19"/>
     </row>
     <row r="84" spans="1:129" ht="10.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A84" s="85"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="112"/>
-      <c r="F84" s="112"/>
-      <c r="G84" s="136"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137"/>
-      <c r="K84" s="137"/>
-      <c r="L84" s="137"/>
-      <c r="M84" s="137"/>
-      <c r="N84" s="137"/>
-      <c r="O84" s="137"/>
-      <c r="P84" s="137"/>
-      <c r="Q84" s="137"/>
-      <c r="R84" s="137"/>
-      <c r="S84" s="137"/>
-      <c r="T84" s="137"/>
-      <c r="U84" s="137"/>
-      <c r="V84" s="137"/>
-      <c r="W84" s="137"/>
-      <c r="X84" s="137"/>
-      <c r="Y84" s="137"/>
-      <c r="Z84" s="137"/>
-      <c r="AA84" s="137"/>
-      <c r="AB84" s="137"/>
-      <c r="AC84" s="137"/>
-      <c r="AD84" s="137"/>
-      <c r="AE84" s="137"/>
-      <c r="AF84" s="137"/>
-      <c r="AG84" s="137"/>
-      <c r="AH84" s="137"/>
-      <c r="AI84" s="137"/>
-      <c r="AJ84" s="138"/>
-      <c r="AK84" s="136"/>
-      <c r="AL84" s="137"/>
-      <c r="AM84" s="137"/>
-      <c r="AN84" s="137"/>
-      <c r="AO84" s="137"/>
-      <c r="AP84" s="137"/>
-      <c r="AQ84" s="137"/>
-      <c r="AR84" s="137"/>
-      <c r="AS84" s="137"/>
-      <c r="AT84" s="137"/>
-      <c r="AU84" s="137"/>
-      <c r="AV84" s="137"/>
-      <c r="AW84" s="137"/>
-      <c r="AX84" s="137"/>
-      <c r="AY84" s="137"/>
-      <c r="AZ84" s="137"/>
-      <c r="BA84" s="137"/>
-      <c r="BB84" s="137"/>
-      <c r="BC84" s="137"/>
-      <c r="BD84" s="137"/>
-      <c r="BE84" s="137"/>
-      <c r="BF84" s="137"/>
-      <c r="BG84" s="137"/>
-      <c r="BH84" s="137"/>
-      <c r="BI84" s="137"/>
-      <c r="BJ84" s="137"/>
-      <c r="BK84" s="137"/>
-      <c r="BL84" s="137"/>
-      <c r="BM84" s="137"/>
-      <c r="BN84" s="137"/>
-      <c r="BO84" s="138"/>
-      <c r="BP84" s="136"/>
-      <c r="BQ84" s="137"/>
-      <c r="BR84" s="137"/>
-      <c r="BS84" s="137"/>
-      <c r="BT84" s="137"/>
-      <c r="BU84" s="137"/>
-      <c r="BV84" s="137"/>
-      <c r="BW84" s="137"/>
-      <c r="BX84" s="137"/>
-      <c r="BY84" s="137"/>
-      <c r="BZ84" s="137"/>
-      <c r="CA84" s="137"/>
-      <c r="CB84" s="137"/>
-      <c r="CC84" s="137"/>
-      <c r="CD84" s="137"/>
-      <c r="CE84" s="137"/>
-      <c r="CF84" s="137"/>
-      <c r="CG84" s="137"/>
-      <c r="CH84" s="137"/>
-      <c r="CI84" s="137"/>
-      <c r="CJ84" s="137"/>
-      <c r="CK84" s="137"/>
-      <c r="CL84" s="137"/>
-      <c r="CM84" s="137"/>
-      <c r="CN84" s="137"/>
-      <c r="CO84" s="137"/>
-      <c r="CP84" s="137"/>
-      <c r="CQ84" s="137"/>
-      <c r="CR84" s="137"/>
-      <c r="CS84" s="138"/>
-      <c r="CT84" s="136"/>
-      <c r="CU84" s="137"/>
-      <c r="CV84" s="137"/>
-      <c r="CW84" s="137"/>
-      <c r="CX84" s="137"/>
-      <c r="CY84" s="137"/>
-      <c r="CZ84" s="137"/>
-      <c r="DA84" s="137"/>
-      <c r="DB84" s="137"/>
-      <c r="DC84" s="137"/>
-      <c r="DD84" s="137"/>
-      <c r="DE84" s="137"/>
-      <c r="DF84" s="137"/>
-      <c r="DG84" s="137"/>
-      <c r="DH84" s="137"/>
-      <c r="DI84" s="137"/>
-      <c r="DJ84" s="137"/>
-      <c r="DK84" s="137"/>
-      <c r="DL84" s="137"/>
-      <c r="DM84" s="137"/>
-      <c r="DN84" s="137"/>
-      <c r="DO84" s="137"/>
-      <c r="DP84" s="137"/>
-      <c r="DQ84" s="137"/>
-      <c r="DR84" s="137"/>
-      <c r="DS84" s="137"/>
-      <c r="DT84" s="137"/>
-      <c r="DU84" s="137"/>
-      <c r="DV84" s="137"/>
-      <c r="DW84" s="137"/>
-      <c r="DX84" s="138"/>
+      <c r="A84" s="113"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="76"/>
+      <c r="M84" s="76"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="76"/>
+      <c r="P84" s="76"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="76"/>
+      <c r="S84" s="76"/>
+      <c r="T84" s="76"/>
+      <c r="U84" s="76"/>
+      <c r="V84" s="76"/>
+      <c r="W84" s="76"/>
+      <c r="X84" s="76"/>
+      <c r="Y84" s="76"/>
+      <c r="Z84" s="76"/>
+      <c r="AA84" s="76"/>
+      <c r="AB84" s="76"/>
+      <c r="AC84" s="76"/>
+      <c r="AD84" s="76"/>
+      <c r="AE84" s="76"/>
+      <c r="AF84" s="76"/>
+      <c r="AG84" s="76"/>
+      <c r="AH84" s="76"/>
+      <c r="AI84" s="76"/>
+      <c r="AJ84" s="77"/>
+      <c r="AK84" s="75"/>
+      <c r="AL84" s="76"/>
+      <c r="AM84" s="76"/>
+      <c r="AN84" s="76"/>
+      <c r="AO84" s="76"/>
+      <c r="AP84" s="76"/>
+      <c r="AQ84" s="76"/>
+      <c r="AR84" s="76"/>
+      <c r="AS84" s="76"/>
+      <c r="AT84" s="76"/>
+      <c r="AU84" s="76"/>
+      <c r="AV84" s="76"/>
+      <c r="AW84" s="76"/>
+      <c r="AX84" s="76"/>
+      <c r="AY84" s="76"/>
+      <c r="AZ84" s="76"/>
+      <c r="BA84" s="76"/>
+      <c r="BB84" s="76"/>
+      <c r="BC84" s="76"/>
+      <c r="BD84" s="76"/>
+      <c r="BE84" s="76"/>
+      <c r="BF84" s="76"/>
+      <c r="BG84" s="76"/>
+      <c r="BH84" s="76"/>
+      <c r="BI84" s="76"/>
+      <c r="BJ84" s="76"/>
+      <c r="BK84" s="76"/>
+      <c r="BL84" s="76"/>
+      <c r="BM84" s="76"/>
+      <c r="BN84" s="76"/>
+      <c r="BO84" s="77"/>
+      <c r="BP84" s="75"/>
+      <c r="BQ84" s="76"/>
+      <c r="BR84" s="76"/>
+      <c r="BS84" s="76"/>
+      <c r="BT84" s="76"/>
+      <c r="BU84" s="76"/>
+      <c r="BV84" s="76"/>
+      <c r="BW84" s="76"/>
+      <c r="BX84" s="76"/>
+      <c r="BY84" s="76"/>
+      <c r="BZ84" s="76"/>
+      <c r="CA84" s="76"/>
+      <c r="CB84" s="76"/>
+      <c r="CC84" s="76"/>
+      <c r="CD84" s="76"/>
+      <c r="CE84" s="76"/>
+      <c r="CF84" s="76"/>
+      <c r="CG84" s="76"/>
+      <c r="CH84" s="76"/>
+      <c r="CI84" s="76"/>
+      <c r="CJ84" s="76"/>
+      <c r="CK84" s="76"/>
+      <c r="CL84" s="76"/>
+      <c r="CM84" s="76"/>
+      <c r="CN84" s="76"/>
+      <c r="CO84" s="76"/>
+      <c r="CP84" s="76"/>
+      <c r="CQ84" s="76"/>
+      <c r="CR84" s="76"/>
+      <c r="CS84" s="77"/>
+      <c r="CT84" s="75"/>
+      <c r="CU84" s="76"/>
+      <c r="CV84" s="76"/>
+      <c r="CW84" s="76"/>
+      <c r="CX84" s="76"/>
+      <c r="CY84" s="76"/>
+      <c r="CZ84" s="76"/>
+      <c r="DA84" s="76"/>
+      <c r="DB84" s="76"/>
+      <c r="DC84" s="76"/>
+      <c r="DD84" s="76"/>
+      <c r="DE84" s="76"/>
+      <c r="DF84" s="76"/>
+      <c r="DG84" s="76"/>
+      <c r="DH84" s="76"/>
+      <c r="DI84" s="76"/>
+      <c r="DJ84" s="76"/>
+      <c r="DK84" s="76"/>
+      <c r="DL84" s="76"/>
+      <c r="DM84" s="76"/>
+      <c r="DN84" s="76"/>
+      <c r="DO84" s="76"/>
+      <c r="DP84" s="76"/>
+      <c r="DQ84" s="76"/>
+      <c r="DR84" s="76"/>
+      <c r="DS84" s="76"/>
+      <c r="DT84" s="76"/>
+      <c r="DU84" s="76"/>
+      <c r="DV84" s="76"/>
+      <c r="DW84" s="76"/>
+      <c r="DX84" s="77"/>
       <c r="DY84" s="19"/>
     </row>
     <row r="85" spans="1:129" ht="10.5" customHeight="1" thickBot="1">
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
-      <c r="D85" s="139"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="140"/>
-      <c r="O85" s="140"/>
-      <c r="P85" s="140"/>
-      <c r="Q85" s="140"/>
-      <c r="R85" s="140"/>
-      <c r="S85" s="140"/>
-      <c r="T85" s="140"/>
-      <c r="U85" s="140"/>
-      <c r="V85" s="140"/>
-      <c r="W85" s="140"/>
-      <c r="X85" s="140"/>
-      <c r="Y85" s="140"/>
-      <c r="Z85" s="140"/>
-      <c r="AA85" s="140"/>
-      <c r="AB85" s="140"/>
-      <c r="AC85" s="140"/>
-      <c r="AD85" s="140"/>
-      <c r="AE85" s="140"/>
-      <c r="AF85" s="140"/>
-      <c r="AG85" s="140"/>
-      <c r="AH85" s="140"/>
-      <c r="AI85" s="140"/>
-      <c r="AJ85" s="140"/>
-      <c r="AK85" s="140"/>
-      <c r="AL85" s="140"/>
-      <c r="AM85" s="140"/>
-      <c r="AN85" s="140"/>
-      <c r="AO85" s="140"/>
-      <c r="AP85" s="140"/>
-      <c r="AQ85" s="140"/>
-      <c r="AR85" s="140"/>
-      <c r="AS85" s="140"/>
-      <c r="AT85" s="140"/>
-      <c r="AU85" s="140"/>
-      <c r="AV85" s="140"/>
-      <c r="AW85" s="140"/>
-      <c r="AX85" s="140"/>
-      <c r="AY85" s="140"/>
-      <c r="AZ85" s="140"/>
-      <c r="BA85" s="140"/>
-      <c r="BB85" s="140"/>
-      <c r="BC85" s="140"/>
-      <c r="BD85" s="140"/>
-      <c r="BE85" s="140"/>
-      <c r="BF85" s="140"/>
-      <c r="BG85" s="140"/>
-      <c r="BH85" s="140"/>
-      <c r="BI85" s="140"/>
-      <c r="BJ85" s="140"/>
-      <c r="BK85" s="140"/>
-      <c r="BL85" s="140"/>
-      <c r="BM85" s="140"/>
-      <c r="BN85" s="140"/>
-      <c r="BO85" s="140"/>
-      <c r="BP85" s="140"/>
-      <c r="BQ85" s="140"/>
-      <c r="BR85" s="140"/>
-      <c r="BS85" s="140"/>
-      <c r="BT85" s="140"/>
-      <c r="BU85" s="140"/>
-      <c r="BV85" s="140"/>
-      <c r="BW85" s="140"/>
-      <c r="BX85" s="140"/>
-      <c r="BY85" s="140"/>
-      <c r="BZ85" s="140"/>
-      <c r="CA85" s="140"/>
-      <c r="CB85" s="140"/>
-      <c r="CC85" s="140"/>
-      <c r="CD85" s="140"/>
-      <c r="CE85" s="140"/>
-      <c r="CF85" s="140"/>
-      <c r="CG85" s="140"/>
-      <c r="CH85" s="140"/>
-      <c r="CI85" s="140"/>
-      <c r="CJ85" s="140"/>
-      <c r="CK85" s="140"/>
-      <c r="CL85" s="140"/>
-      <c r="CM85" s="140"/>
-      <c r="CN85" s="140"/>
-      <c r="CO85" s="140"/>
-      <c r="CP85" s="140"/>
-      <c r="CQ85" s="140"/>
-      <c r="CR85" s="140"/>
-      <c r="CS85" s="140"/>
-      <c r="CT85" s="140"/>
-      <c r="CU85" s="140"/>
-      <c r="CV85" s="140"/>
-      <c r="CW85" s="140"/>
-      <c r="CX85" s="140"/>
-      <c r="CY85" s="140"/>
-      <c r="CZ85" s="140"/>
-      <c r="DA85" s="140"/>
-      <c r="DB85" s="140"/>
-      <c r="DC85" s="140"/>
-      <c r="DD85" s="140"/>
-      <c r="DE85" s="140"/>
-      <c r="DF85" s="140"/>
-      <c r="DG85" s="140"/>
-      <c r="DH85" s="140"/>
-      <c r="DI85" s="140"/>
-      <c r="DJ85" s="140"/>
-      <c r="DK85" s="140"/>
-      <c r="DL85" s="140"/>
-      <c r="DM85" s="140"/>
-      <c r="DN85" s="140"/>
-      <c r="DO85" s="140"/>
-      <c r="DP85" s="140"/>
-      <c r="DQ85" s="140"/>
-      <c r="DR85" s="140"/>
-      <c r="DS85" s="140"/>
-      <c r="DT85" s="140"/>
-      <c r="DU85" s="140"/>
-      <c r="DV85" s="140"/>
-      <c r="DW85" s="140"/>
-      <c r="DX85" s="140"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
+      <c r="N85" s="79"/>
+      <c r="O85" s="79"/>
+      <c r="P85" s="79"/>
+      <c r="Q85" s="79"/>
+      <c r="R85" s="79"/>
+      <c r="S85" s="79"/>
+      <c r="T85" s="79"/>
+      <c r="U85" s="79"/>
+      <c r="V85" s="79"/>
+      <c r="W85" s="79"/>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+      <c r="AB85" s="79"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
+      <c r="AF85" s="79"/>
+      <c r="AG85" s="79"/>
+      <c r="AH85" s="79"/>
+      <c r="AI85" s="79"/>
+      <c r="AJ85" s="79"/>
+      <c r="AK85" s="79"/>
+      <c r="AL85" s="79"/>
+      <c r="AM85" s="79"/>
+      <c r="AN85" s="79"/>
+      <c r="AO85" s="79"/>
+      <c r="AP85" s="79"/>
+      <c r="AQ85" s="79"/>
+      <c r="AR85" s="79"/>
+      <c r="AS85" s="79"/>
+      <c r="AT85" s="79"/>
+      <c r="AU85" s="79"/>
+      <c r="AV85" s="79"/>
+      <c r="AW85" s="79"/>
+      <c r="AX85" s="79"/>
+      <c r="AY85" s="79"/>
+      <c r="AZ85" s="79"/>
+      <c r="BA85" s="79"/>
+      <c r="BB85" s="79"/>
+      <c r="BC85" s="79"/>
+      <c r="BD85" s="79"/>
+      <c r="BE85" s="79"/>
+      <c r="BF85" s="79"/>
+      <c r="BG85" s="79"/>
+      <c r="BH85" s="79"/>
+      <c r="BI85" s="79"/>
+      <c r="BJ85" s="79"/>
+      <c r="BK85" s="79"/>
+      <c r="BL85" s="79"/>
+      <c r="BM85" s="79"/>
+      <c r="BN85" s="79"/>
+      <c r="BO85" s="79"/>
+      <c r="BP85" s="79"/>
+      <c r="BQ85" s="79"/>
+      <c r="BR85" s="79"/>
+      <c r="BS85" s="79"/>
+      <c r="BT85" s="79"/>
+      <c r="BU85" s="79"/>
+      <c r="BV85" s="79"/>
+      <c r="BW85" s="79"/>
+      <c r="BX85" s="79"/>
+      <c r="BY85" s="79"/>
+      <c r="BZ85" s="79"/>
+      <c r="CA85" s="79"/>
+      <c r="CB85" s="79"/>
+      <c r="CC85" s="79"/>
+      <c r="CD85" s="79"/>
+      <c r="CE85" s="79"/>
+      <c r="CF85" s="79"/>
+      <c r="CG85" s="79"/>
+      <c r="CH85" s="79"/>
+      <c r="CI85" s="79"/>
+      <c r="CJ85" s="79"/>
+      <c r="CK85" s="79"/>
+      <c r="CL85" s="79"/>
+      <c r="CM85" s="79"/>
+      <c r="CN85" s="79"/>
+      <c r="CO85" s="79"/>
+      <c r="CP85" s="79"/>
+      <c r="CQ85" s="79"/>
+      <c r="CR85" s="79"/>
+      <c r="CS85" s="79"/>
+      <c r="CT85" s="79"/>
+      <c r="CU85" s="79"/>
+      <c r="CV85" s="79"/>
+      <c r="CW85" s="79"/>
+      <c r="CX85" s="79"/>
+      <c r="CY85" s="79"/>
+      <c r="CZ85" s="79"/>
+      <c r="DA85" s="79"/>
+      <c r="DB85" s="79"/>
+      <c r="DC85" s="79"/>
+      <c r="DD85" s="79"/>
+      <c r="DE85" s="79"/>
+      <c r="DF85" s="79"/>
+      <c r="DG85" s="79"/>
+      <c r="DH85" s="79"/>
+      <c r="DI85" s="79"/>
+      <c r="DJ85" s="79"/>
+      <c r="DK85" s="79"/>
+      <c r="DL85" s="79"/>
+      <c r="DM85" s="79"/>
+      <c r="DN85" s="79"/>
+      <c r="DO85" s="79"/>
+      <c r="DP85" s="79"/>
+      <c r="DQ85" s="79"/>
+      <c r="DR85" s="79"/>
+      <c r="DS85" s="79"/>
+      <c r="DT85" s="79"/>
+      <c r="DU85" s="79"/>
+      <c r="DV85" s="79"/>
+      <c r="DW85" s="79"/>
+      <c r="DX85" s="79"/>
     </row>
     <row r="86" spans="1:129" ht="35.25" thickBot="1">
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
-      <c r="D86" s="141" t="s">
+      <c r="D86" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="142">
+      <c r="E86" s="81">
         <f>SUM(E7:E82)</f>
-        <v>269</v>
-      </c>
-      <c r="F86" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="144">
+      <c r="G86" s="83">
         <f t="shared" ref="G86:BR86" si="8">SUM(G$7:G$84)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="145">
+      <c r="H86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I86" s="145">
+      <c r="I86" s="84">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="J86" s="145">
+      <c r="J86" s="84">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="K86" s="145">
+      <c r="K86" s="84">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="L86" s="145">
+      <c r="L86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M86" s="145">
+      <c r="M86" s="84">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="N86" s="145">
+      <c r="N86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O86" s="145">
+      <c r="O86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P86" s="145">
+      <c r="P86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="145">
+      <c r="Q86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R86" s="145">
+      <c r="R86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S86" s="145">
+      <c r="S86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T86" s="145">
+      <c r="T86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U86" s="145">
+      <c r="U86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V86" s="145">
+      <c r="V86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W86" s="145">
+      <c r="W86" s="84">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="X86" s="145">
+      <c r="X86" s="84">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="Y86" s="145">
+      <c r="Y86" s="84">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="Z86" s="145">
+      <c r="Z86" s="84">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="AA86" s="145">
+      <c r="AA86" s="84">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="AB86" s="145">
+      <c r="AB86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC86" s="145">
+      <c r="AC86" s="84">
         <f>SUM(AC$7:AC$84)</f>
         <v>0</v>
       </c>
-      <c r="AD86" s="145">
+      <c r="AD86" s="84">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="AE86" s="145">
+      <c r="AE86" s="84">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="AF86" s="145">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AG86" s="145">
+      <c r="AF86" s="84">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AH86" s="145">
+      <c r="AG86" s="84">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AH86" s="84">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AI86" s="145">
+      <c r="AI86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AJ86" s="145">
+      <c r="AJ86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK86" s="145">
+      <c r="AK86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AL86" s="145">
+      <c r="AL86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM86" s="145">
+      <c r="AM86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AN86" s="145">
+      <c r="AN86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO86" s="145">
+      <c r="AO86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AP86" s="145">
+      <c r="AP86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AQ86" s="145">
+      <c r="AQ86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AR86" s="145">
+      <c r="AR86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AS86" s="145">
+      <c r="AS86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AT86" s="145">
+      <c r="AT86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AU86" s="145">
+      <c r="AU86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AV86" s="145">
+      <c r="AV86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AW86" s="145">
+      <c r="AW86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AX86" s="145">
+      <c r="AX86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AY86" s="145">
+      <c r="AY86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AZ86" s="145">
+      <c r="AZ86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BA86" s="145">
+      <c r="BA86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BB86" s="145">
+      <c r="BB86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BC86" s="145">
+      <c r="BC86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BD86" s="145">
+      <c r="BD86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BE86" s="145">
+      <c r="BE86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BF86" s="145">
+      <c r="BF86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BG86" s="145">
+      <c r="BG86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BH86" s="145">
+      <c r="BH86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BI86" s="145">
+      <c r="BI86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BJ86" s="145">
+      <c r="BJ86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BK86" s="145">
+      <c r="BK86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BL86" s="145">
+      <c r="BL86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BM86" s="145">
+      <c r="BM86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BN86" s="145">
+      <c r="BN86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BO86" s="145">
+      <c r="BO86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BP86" s="145">
+      <c r="BP86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BQ86" s="145">
+      <c r="BQ86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BR86" s="145">
+      <c r="BR86" s="84">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BS86" s="145">
+      <c r="BS86" s="84">
         <f t="shared" ref="BS86:DX86" si="9">SUM(BS$7:BS$84)</f>
         <v>0</v>
       </c>
-      <c r="BT86" s="145">
+      <c r="BT86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BU86" s="145">
+      <c r="BU86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BV86" s="145">
+      <c r="BV86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BW86" s="145">
+      <c r="BW86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BX86" s="145">
+      <c r="BX86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BY86" s="145">
+      <c r="BY86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BZ86" s="145">
+      <c r="BZ86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CA86" s="145">
+      <c r="CA86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CB86" s="145">
+      <c r="CB86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CC86" s="145">
+      <c r="CC86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CD86" s="145">
+      <c r="CD86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CE86" s="145">
+      <c r="CE86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CF86" s="145">
+      <c r="CF86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CG86" s="145">
+      <c r="CG86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CH86" s="145">
+      <c r="CH86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CI86" s="145">
+      <c r="CI86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CJ86" s="145">
+      <c r="CJ86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CK86" s="145">
+      <c r="CK86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CL86" s="145">
+      <c r="CL86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CM86" s="145">
+      <c r="CM86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CN86" s="145">
+      <c r="CN86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CO86" s="145">
+      <c r="CO86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CP86" s="145">
+      <c r="CP86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CQ86" s="145">
+      <c r="CQ86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CR86" s="145">
+      <c r="CR86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CS86" s="145">
+      <c r="CS86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CT86" s="145">
+      <c r="CT86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CU86" s="145">
+      <c r="CU86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CV86" s="145">
+      <c r="CV86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CW86" s="145">
+      <c r="CW86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CX86" s="145">
+      <c r="CX86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CY86" s="145">
+      <c r="CY86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="CZ86" s="145">
+      <c r="CZ86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DA86" s="145">
+      <c r="DA86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DB86" s="145">
+      <c r="DB86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DC86" s="145">
+      <c r="DC86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DD86" s="145">
+      <c r="DD86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DE86" s="145">
+      <c r="DE86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DF86" s="145">
+      <c r="DF86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DG86" s="145">
+      <c r="DG86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DH86" s="145">
+      <c r="DH86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DI86" s="145">
+      <c r="DI86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DJ86" s="145">
+      <c r="DJ86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DK86" s="145">
+      <c r="DK86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DL86" s="145">
+      <c r="DL86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DM86" s="145">
+      <c r="DM86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DN86" s="145">
+      <c r="DN86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DO86" s="145">
+      <c r="DO86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DP86" s="145">
+      <c r="DP86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DQ86" s="145">
+      <c r="DQ86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DR86" s="145">
+      <c r="DR86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DS86" s="145">
+      <c r="DS86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DT86" s="145">
+      <c r="DT86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DU86" s="145">
+      <c r="DU86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DV86" s="145">
+      <c r="DV86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DW86" s="145">
+      <c r="DW86" s="84">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="DX86" s="146">
+      <c r="DX86" s="85">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -19064,264 +18997,264 @@
       </c>
     </row>
     <row r="91" spans="1:129">
-      <c r="A91" s="147">
+      <c r="A91" s="86">
         <f>[1]祝日!G1</f>
         <v>43831</v>
       </c>
-      <c r="B91" s="147"/>
-      <c r="C91" s="147"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
       <c r="D91" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="41"/>
     </row>
     <row r="92" spans="1:129">
-      <c r="A92" s="147">
+      <c r="A92" s="86">
         <f>[1]祝日!G2</f>
         <v>43843</v>
       </c>
-      <c r="B92" s="147"/>
-      <c r="C92" s="147"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="86"/>
       <c r="D92" s="41" t="s">
         <v>22</v>
       </c>
       <c r="F92" s="41"/>
     </row>
     <row r="93" spans="1:129">
-      <c r="A93" s="147">
+      <c r="A93" s="86">
         <f>[1]祝日!G3</f>
         <v>43872</v>
       </c>
-      <c r="B93" s="147"/>
-      <c r="C93" s="147"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="86"/>
       <c r="D93" s="41" t="s">
         <v>31</v>
       </c>
       <c r="F93" s="41"/>
     </row>
     <row r="94" spans="1:129">
-      <c r="A94" s="147">
+      <c r="A94" s="86">
         <f>[1]祝日!G4</f>
         <v>43910</v>
       </c>
-      <c r="B94" s="147"/>
-      <c r="C94" s="147"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="86"/>
       <c r="D94" s="41" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="41"/>
     </row>
     <row r="95" spans="1:129">
-      <c r="A95" s="147">
+      <c r="A95" s="86">
         <f>[1]祝日!G5</f>
         <v>43950</v>
       </c>
-      <c r="B95" s="147"/>
-      <c r="C95" s="147"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
       <c r="D95" s="41" t="s">
         <v>46</v>
       </c>
       <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:129">
-      <c r="A96" s="147">
+      <c r="A96" s="86">
         <f>[1]祝日!G6</f>
         <v>43954</v>
       </c>
-      <c r="B96" s="147"/>
-      <c r="C96" s="147"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="86"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="147">
+      <c r="A97" s="86">
         <f>[1]祝日!G7</f>
         <v>43955</v>
       </c>
-      <c r="B97" s="147"/>
-      <c r="C97" s="147"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="86"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="147">
+      <c r="A98" s="86">
         <f>[1]祝日!G8</f>
         <v>43956</v>
       </c>
-      <c r="B98" s="147"/>
-      <c r="C98" s="147"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="86"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="147">
+      <c r="A99" s="86">
         <f>[1]祝日!G9</f>
         <v>43957</v>
       </c>
-      <c r="B99" s="147"/>
-      <c r="C99" s="147"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="86"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="147">
+      <c r="A100" s="86">
         <f>[1]祝日!G10</f>
         <v>44032</v>
       </c>
-      <c r="B100" s="147"/>
-      <c r="C100" s="147"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="147">
+      <c r="A101" s="86">
         <f>[1]祝日!G11</f>
         <v>44095</v>
       </c>
-      <c r="B101" s="147"/>
-      <c r="C101" s="147"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="147">
+      <c r="A102" s="86">
         <f>[1]祝日!G12</f>
         <v>44096</v>
       </c>
-      <c r="B102" s="147"/>
-      <c r="C102" s="147"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="86"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="147">
+      <c r="A103" s="86">
         <f>[1]祝日!G13</f>
         <v>44116</v>
       </c>
-      <c r="B103" s="147"/>
-      <c r="C103" s="147"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="147">
+      <c r="A104" s="86">
         <f>[1]祝日!G14</f>
         <v>44138</v>
       </c>
-      <c r="B104" s="147"/>
-      <c r="C104" s="147"/>
+      <c r="B104" s="86"/>
+      <c r="C104" s="86"/>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="147">
+      <c r="A105" s="86">
         <f>[1]祝日!G15</f>
         <v>44158</v>
       </c>
-      <c r="B105" s="147"/>
-      <c r="C105" s="147"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="86"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="147">
+      <c r="A106" s="86">
         <f>[1]祝日!G16</f>
         <v>44188</v>
       </c>
-      <c r="B106" s="147"/>
-      <c r="C106" s="147"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="86"/>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="147" t="str">
+      <c r="A107" s="86" t="str">
         <f>[1]祝日!G17</f>
         <v/>
       </c>
-      <c r="B107" s="147"/>
-      <c r="C107" s="147"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="86"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="147" t="str">
+      <c r="A108" s="86" t="str">
         <f>[1]祝日!G18</f>
         <v/>
       </c>
-      <c r="B108" s="147"/>
-      <c r="C108" s="147"/>
+      <c r="B108" s="86"/>
+      <c r="C108" s="86"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="147" t="str">
+      <c r="A109" s="86" t="str">
         <f>[1]祝日!G19</f>
         <v/>
       </c>
-      <c r="B109" s="147"/>
-      <c r="C109" s="147"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="86"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="147" t="str">
+      <c r="A110" s="86" t="str">
         <f>[1]祝日!G20</f>
         <v/>
       </c>
-      <c r="B110" s="147"/>
-      <c r="C110" s="147"/>
+      <c r="B110" s="86"/>
+      <c r="C110" s="86"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="147" t="str">
+      <c r="A111" s="86" t="str">
         <f>[1]祝日!G21</f>
         <v/>
       </c>
-      <c r="B111" s="147"/>
-      <c r="C111" s="147"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="147" t="str">
+      <c r="A112" s="86" t="str">
         <f>[1]祝日!G22</f>
         <v/>
       </c>
-      <c r="B112" s="147"/>
-      <c r="C112" s="147"/>
+      <c r="B112" s="86"/>
+      <c r="C112" s="86"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="147" t="str">
+      <c r="A113" s="86" t="str">
         <f>[1]祝日!G23</f>
         <v/>
       </c>
-      <c r="B113" s="147"/>
-      <c r="C113" s="147"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="86"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="147" t="str">
+      <c r="A114" s="86" t="str">
         <f>[1]祝日!G24</f>
         <v/>
       </c>
-      <c r="B114" s="147"/>
-      <c r="C114" s="147"/>
+      <c r="B114" s="86"/>
+      <c r="C114" s="86"/>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="147" t="str">
+      <c r="A115" s="86" t="str">
         <f>[1]祝日!G25</f>
         <v/>
       </c>
-      <c r="B115" s="147"/>
-      <c r="C115" s="147"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="147" t="str">
+      <c r="A116" s="86" t="str">
         <f>[1]祝日!G26</f>
         <v/>
       </c>
-      <c r="B116" s="147"/>
-      <c r="C116" s="147"/>
+      <c r="B116" s="86"/>
+      <c r="C116" s="86"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="147" t="str">
+      <c r="A117" s="86" t="str">
         <f>[1]祝日!G27</f>
         <v/>
       </c>
-      <c r="B117" s="147"/>
-      <c r="C117" s="147"/>
+      <c r="B117" s="86"/>
+      <c r="C117" s="86"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="147" t="str">
+      <c r="A118" s="86" t="str">
         <f>[1]祝日!G28</f>
         <v/>
       </c>
-      <c r="B118" s="147"/>
-      <c r="C118" s="147"/>
+      <c r="B118" s="86"/>
+      <c r="C118" s="86"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="147" t="str">
+      <c r="A119" s="86" t="str">
         <f>[1]祝日!G29</f>
         <v/>
       </c>
-      <c r="B119" s="147"/>
-      <c r="C119" s="147"/>
+      <c r="B119" s="86"/>
+      <c r="C119" s="86"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="147" t="str">
+      <c r="A120" s="86" t="str">
         <f>[1]祝日!G30</f>
         <v/>
       </c>
-      <c r="B120" s="147"/>
-      <c r="C120" s="147"/>
+      <c r="B120" s="86"/>
+      <c r="C120" s="86"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="20"/>
@@ -19403,97 +19336,57 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="166">
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="BP4:CS4"/>
+    <mergeCell ref="G3:DX3"/>
+    <mergeCell ref="CT4:DX4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G4:AJ4"/>
+    <mergeCell ref="AK4:BO4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D22:D24"/>
@@ -19518,89 +19411,129 @@
     <mergeCell ref="D40:D42"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:D30"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="BP4:CS4"/>
-    <mergeCell ref="G3:DX3"/>
-    <mergeCell ref="CT4:DX4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G4:AJ4"/>
-    <mergeCell ref="AK4:BO4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="G67:DX84 G7:DX63">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>EXACT(G$6,"土")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>OR(EXACT(G$6,"日"),IF(ISERROR(VLOOKUP(G$5,$A$91:$C$120,1,FALSE)),FALSE,TRUE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:DX66">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>EXACT(G$6,"土")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>OR(EXACT(G$6,"日"),IF(ISERROR(VLOOKUP(G$5,$A$91:$C$120,1,FALSE)),FALSE,TRUE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:DX6">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>AND(IF(G$87="有",TRUE,FALSE),IF(TODAY()&lt;=G$5,TRUE,FALSE))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
       <formula>EXACT(G$6,"土")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>OR(EXACT(G$6,"日"), IF(ISERROR(VLOOKUP(G$5,$A$91:$C$120,1,FALSE)),FALSE,TRUE))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19611,7 +19544,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="26" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="53" max="128" man="1"/>
@@ -20095,7 +20028,7 @@
   </customSheetViews>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>DAY(A2)&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20107,9 +20040,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20330,19 +20266,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFBD568-15FC-4260-936B-7B3755269FC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC1B5F1F-F42D-4BD6-901C-DA4D442E019F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20367,9 +20299,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC1B5F1F-F42D-4BD6-901C-DA4D442E019F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FFBD568-15FC-4260-936B-7B3755269FC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>